--- a/data/new_posteriors/no_elementary_skills/simple_model/leak/unconstrained/results_model1a_leak_unconstrained.xlsx
+++ b/data/new_posteriors/no_elementary_skills/simple_model/leak/unconstrained/results_model1a_leak_unconstrained.xlsx
@@ -622,31 +622,31 @@
         <v>1.0</v>
       </c>
       <c r="E3" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F3" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G3" t="n" s="25">
-        <v>0.9809504703577594</v>
+        <v>0.9628202489126994</v>
       </c>
       <c r="H3" t="n" s="25">
-        <v>0.674970483145514</v>
+        <v>0.6580465123459209</v>
       </c>
       <c r="I3" t="n" s="25">
-        <v>0.8736744872858907</v>
+        <v>0.83031706557813</v>
       </c>
       <c r="J3" t="n" s="25">
-        <v>0.9360392914883309</v>
+        <v>0.736042087535206</v>
       </c>
       <c r="K3" t="n" s="25">
-        <v>0.7584620943822387</v>
+        <v>0.7333951446272347</v>
       </c>
       <c r="L3" t="n" s="25">
-        <v>0.5906994712162973</v>
+        <v>0.4546946202060924</v>
       </c>
       <c r="M3" t="n" s="25">
-        <v>1.0</v>
+        <v>1.6389517185307685E-6</v>
       </c>
       <c r="N3" t="n" s="25">
         <v>0.5</v>
@@ -657,31 +657,31 @@
         <v>2.0</v>
       </c>
       <c r="E4" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F4" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G4" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H4" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="I4" t="n" s="25">
-        <v>0.972241196527547</v>
+        <v>0.9591963679410247</v>
       </c>
       <c r="J4" t="n" s="25">
-        <v>0.9999673447003828</v>
+        <v>0.9997281004082165</v>
       </c>
       <c r="K4" t="n" s="25">
-        <v>0.8516409323597693</v>
+        <v>0.8216755766353819</v>
       </c>
       <c r="L4" t="n" s="25">
-        <v>0.9979245906049349</v>
+        <v>0.9951201085298701</v>
       </c>
       <c r="M4" t="n" s="25">
-        <v>1.0</v>
+        <v>0.5860549010541988</v>
       </c>
       <c r="N4" t="n" s="25">
         <v>0.5</v>
@@ -692,31 +692,31 @@
         <v>3.0</v>
       </c>
       <c r="E5" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F5" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G5" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H5" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.7316044330870541</v>
       </c>
       <c r="I5" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.9822472371849684</v>
       </c>
       <c r="J5" t="n" s="25">
-        <v>0.9999999725000644</v>
+        <v>0.999999602152718</v>
       </c>
       <c r="K5" t="n" s="25">
-        <v>0.9138984359801404</v>
+        <v>0.888422347765727</v>
       </c>
       <c r="L5" t="n" s="25">
-        <v>0.9997425131017905</v>
+        <v>0.9992116235241997</v>
       </c>
       <c r="M5" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999914961412879</v>
       </c>
       <c r="N5" t="n" s="25">
         <v>0.5</v>
@@ -727,31 +727,31 @@
         <v>4.0</v>
       </c>
       <c r="E6" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F6" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G6" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H6" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.7316044330870541</v>
       </c>
       <c r="I6" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.9822472371849684</v>
       </c>
       <c r="J6" t="n" s="25">
-        <v>0.9999999725000644</v>
+        <v>0.999999602152718</v>
       </c>
       <c r="K6" t="n" s="25">
-        <v>0.9389893343444585</v>
+        <v>0.9167734363556469</v>
       </c>
       <c r="L6" t="n" s="25">
-        <v>0.9999192688331611</v>
+        <v>0.9997059754170516</v>
       </c>
       <c r="M6" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999226837086</v>
       </c>
       <c r="N6" t="n" s="25">
         <v>0.5</v>
@@ -762,31 +762,31 @@
         <v>5.0</v>
       </c>
       <c r="E7" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F7" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G7" t="n" s="25">
-        <v>0.9968088971033306</v>
+        <v>0.9933225520474093</v>
       </c>
       <c r="H7" t="n" s="25">
-        <v>0.7324794792380951</v>
+        <v>0.7111929936636499</v>
       </c>
       <c r="I7" t="n" s="25">
-        <v>0.984297451505334</v>
+        <v>0.9752609794337865</v>
       </c>
       <c r="J7" t="n" s="25">
-        <v>0.9999967622381147</v>
+        <v>0.999968810898045</v>
       </c>
       <c r="K7" t="n" s="25">
-        <v>0.9044588161984988</v>
+        <v>0.8779472885806937</v>
       </c>
       <c r="L7" t="n" s="25">
-        <v>0.9984853853218583</v>
+        <v>0.9955900543313</v>
       </c>
       <c r="M7" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9973403593517053</v>
       </c>
       <c r="N7" t="n" s="25">
         <v>0.5</v>
@@ -797,31 +797,31 @@
         <v>6.0</v>
       </c>
       <c r="E8" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F8" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G8" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H8" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="I8" t="n" s="25">
-        <v>0.972241196527547</v>
+        <v>0.9591963679410247</v>
       </c>
       <c r="J8" t="n" s="25">
-        <v>0.9999673447003828</v>
+        <v>0.9997281004082165</v>
       </c>
       <c r="K8" t="n" s="25">
-        <v>0.7022311691808127</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="L8" t="n" s="25">
-        <v>0.972241196527547</v>
+        <v>0.9591963679410247</v>
       </c>
       <c r="M8" t="n" s="25">
-        <v>0.004321894584155071</v>
+        <v>5.209189065932091E-4</v>
       </c>
       <c r="N8" t="n" s="25">
         <v>0.5</v>
@@ -832,31 +832,31 @@
         <v>7.0</v>
       </c>
       <c r="E9" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F9" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G9" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H9" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.7316044330870541</v>
       </c>
       <c r="I9" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.9822472371849684</v>
       </c>
       <c r="J9" t="n" s="25">
-        <v>0.9999999725000644</v>
+        <v>0.999999602152718</v>
       </c>
       <c r="K9" t="n" s="25">
-        <v>0.9627368853578661</v>
+        <v>0.9445419984089428</v>
       </c>
       <c r="L9" t="n" s="25">
-        <v>0.9999812397699941</v>
+        <v>0.9999090547450499</v>
       </c>
       <c r="M9" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999968694504</v>
       </c>
       <c r="N9" t="n" s="25">
         <v>0.5</v>
@@ -867,31 +867,31 @@
         <v>8.0</v>
       </c>
       <c r="E10" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F10" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G10" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H10" t="n" s="25">
-        <v>0.7202792732449277</v>
+        <v>0.6996969133754081</v>
       </c>
       <c r="I10" t="n" s="25">
-        <v>0.9797479520785931</v>
+        <v>0.9690112036423819</v>
       </c>
       <c r="J10" t="n" s="25">
-        <v>0.9999969161887128</v>
+        <v>0.9999691271621437</v>
       </c>
       <c r="K10" t="n" s="25">
-        <v>0.904559501439719</v>
+        <v>0.8769132644579998</v>
       </c>
       <c r="L10" t="n" s="25">
-        <v>0.9995672555645467</v>
+        <v>0.9987036182399892</v>
       </c>
       <c r="M10" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9988411170644119</v>
       </c>
       <c r="N10" t="n" s="25">
         <v>0.5</v>
@@ -902,31 +902,31 @@
         <v>9.0</v>
       </c>
       <c r="E11" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F11" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G11" t="n" s="25">
-        <v>0.9885608448928871</v>
+        <v>0.9801028063812303</v>
       </c>
       <c r="H11" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.7316044330870541</v>
       </c>
       <c r="I11" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.9822472371849684</v>
       </c>
       <c r="J11" t="n" s="25">
-        <v>0.9998133573861545</v>
+        <v>0.9988099974480896</v>
       </c>
       <c r="K11" t="n" s="25">
-        <v>0.9365367438390729</v>
+        <v>0.9141129982330776</v>
       </c>
       <c r="L11" t="n" s="25">
-        <v>0.9958169570227607</v>
+        <v>0.9852860829459312</v>
       </c>
       <c r="M11" t="n" s="25">
-        <v>1.0</v>
+        <v>0.8858261471346336</v>
       </c>
       <c r="N11" t="n" s="25">
         <v>0.5</v>
@@ -937,31 +937,31 @@
         <v>10.0</v>
       </c>
       <c r="E12" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F12" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G12" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H12" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.7316044330870541</v>
       </c>
       <c r="I12" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.9822472371849684</v>
       </c>
       <c r="J12" t="n" s="25">
-        <v>0.9999999725000644</v>
+        <v>0.999999602152718</v>
       </c>
       <c r="K12" t="n" s="25">
-        <v>0.9627368853578661</v>
+        <v>0.9445419984089428</v>
       </c>
       <c r="L12" t="n" s="25">
-        <v>0.9999812397699941</v>
+        <v>0.9999090547450499</v>
       </c>
       <c r="M12" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999968694504</v>
       </c>
       <c r="N12" t="n" s="25">
         <v>0.5</v>
@@ -972,31 +972,31 @@
         <v>11.0</v>
       </c>
       <c r="E13" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F13" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G13" t="n" s="25">
-        <v>0.3533029657290495</v>
+        <v>0.3148272112337479</v>
       </c>
       <c r="H13" t="n" s="25">
-        <v>0.7376421550530808</v>
+        <v>0.7159208149572639</v>
       </c>
       <c r="I13" t="n" s="25">
-        <v>0.9002088658414172</v>
+        <v>0.8488353593088658</v>
       </c>
       <c r="J13" t="n" s="25">
-        <v>0.005964385326377179</v>
+        <v>0.0032080876962652222</v>
       </c>
       <c r="K13" t="n" s="25">
-        <v>0.9781616014951625</v>
+        <v>0.9651623199857452</v>
       </c>
       <c r="L13" t="n" s="25">
-        <v>0.9862769572602218</v>
+        <v>0.9208516015992242</v>
       </c>
       <c r="M13" t="n" s="25">
-        <v>1.0</v>
+        <v>8.601623297027354E-8</v>
       </c>
       <c r="N13" t="n" s="25">
         <v>0.5</v>
@@ -1007,31 +1007,31 @@
         <v>12.0</v>
       </c>
       <c r="E14" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F14" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G14" t="n" s="25">
-        <v>0.8733374067261981</v>
+        <v>0.8474439521376778</v>
       </c>
       <c r="H14" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="I14" t="n" s="25">
-        <v>0.992936562550551</v>
+        <v>0.9876280663827864</v>
       </c>
       <c r="J14" t="n" s="25">
-        <v>0.017450032449341367</v>
+        <v>0.007347493508201953</v>
       </c>
       <c r="K14" t="n" s="25">
-        <v>0.840804709784475</v>
+        <v>0.8137064249613717</v>
       </c>
       <c r="L14" t="n" s="25">
-        <v>0.006882457873009964</v>
+        <v>0.0032033799387677</v>
       </c>
       <c r="M14" t="n" s="25">
-        <v>1.2410868388321564E-13</v>
+        <v>4.223875295285838E-14</v>
       </c>
       <c r="N14" t="n" s="25">
         <v>0.5</v>
@@ -1042,31 +1042,31 @@
         <v>13.0</v>
       </c>
       <c r="E15" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F15" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G15" t="n" s="25">
-        <v>0.9905338361403787</v>
+        <v>0.9828025514836383</v>
       </c>
       <c r="H15" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="I15" t="n" s="25">
-        <v>0.972241196527547</v>
+        <v>0.9591963679410247</v>
       </c>
       <c r="J15" t="n" s="25">
-        <v>0.30738652215381285</v>
+        <v>0.09639569952809342</v>
       </c>
       <c r="K15" t="n" s="25">
-        <v>0.8516409323597693</v>
+        <v>0.8216755766353819</v>
       </c>
       <c r="L15" t="n" s="25">
-        <v>0.419026521926646</v>
+        <v>0.23423513281242453</v>
       </c>
       <c r="M15" t="n" s="25">
-        <v>1.0</v>
+        <v>6.161590274207595E-8</v>
       </c>
       <c r="N15" t="n" s="25">
         <v>0.5</v>
@@ -1077,31 +1077,31 @@
         <v>14.0</v>
       </c>
       <c r="E16" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F16" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G16" t="n" s="25">
-        <v>0.9694997603491593</v>
+        <v>0.9546188744274835</v>
       </c>
       <c r="H16" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="I16" t="n" s="25">
-        <v>0.992936562550551</v>
+        <v>0.9876280663827864</v>
       </c>
       <c r="J16" t="n" s="25">
-        <v>0.9999842985060569</v>
+        <v>0.9999225469743707</v>
       </c>
       <c r="K16" t="n" s="25">
-        <v>0.9671003085684781</v>
+        <v>0.9502283030300666</v>
       </c>
       <c r="L16" t="n" s="25">
-        <v>0.999972628020562</v>
+        <v>0.9998599299715121</v>
       </c>
       <c r="M16" t="n" s="25">
-        <v>0.7011471544347262</v>
+        <v>0.14062759518131557</v>
       </c>
       <c r="N16" t="n" s="25">
         <v>0.5</v>
@@ -1112,31 +1112,31 @@
         <v>15.0</v>
       </c>
       <c r="E17" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F17" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G17" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H17" t="n" s="25">
-        <v>0.7202792732449277</v>
+        <v>0.6996969133754082</v>
       </c>
       <c r="I17" t="n" s="25">
-        <v>0.9797479520785931</v>
+        <v>0.9690112036423819</v>
       </c>
       <c r="J17" t="n" s="25">
-        <v>0.9999969161887128</v>
+        <v>0.9999691271621437</v>
       </c>
       <c r="K17" t="n" s="25">
-        <v>0.9008759257372884</v>
+        <v>0.8733346251103455</v>
       </c>
       <c r="L17" t="n" s="25">
-        <v>0.9995282213418744</v>
+        <v>0.9986276716196846</v>
       </c>
       <c r="M17" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9992715452391683</v>
       </c>
       <c r="N17" t="n" s="25">
         <v>0.5</v>
@@ -1147,31 +1147,31 @@
         <v>16.0</v>
       </c>
       <c r="E18" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F18" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G18" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H18" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="I18" t="n" s="25">
-        <v>0.992936562550551</v>
+        <v>0.9876280663827864</v>
       </c>
       <c r="J18" t="n" s="25">
-        <v>0.9999999966836344</v>
+        <v>0.9999999389553557</v>
       </c>
       <c r="K18" t="n" s="25">
-        <v>0.964333109269324</v>
+        <v>0.9471644072694203</v>
       </c>
       <c r="L18" t="n" s="25">
-        <v>0.9999853906567512</v>
+        <v>0.9999300113286804</v>
       </c>
       <c r="M18" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999997918735</v>
       </c>
       <c r="N18" t="n" s="25">
         <v>0.5</v>
@@ -1182,31 +1182,31 @@
         <v>17.0</v>
       </c>
       <c r="E19" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F19" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G19" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H19" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.7316044330870541</v>
       </c>
       <c r="I19" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.9822472371849684</v>
       </c>
       <c r="J19" t="n" s="25">
-        <v>0.9999999725000644</v>
+        <v>0.999999602152718</v>
       </c>
       <c r="K19" t="n" s="25">
-        <v>0.9389893343444585</v>
+        <v>0.9167734363556469</v>
       </c>
       <c r="L19" t="n" s="25">
-        <v>0.9999192688331611</v>
+        <v>0.9997059754170516</v>
       </c>
       <c r="M19" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999226837086</v>
       </c>
       <c r="N19" t="n" s="25">
         <v>0.5</v>
@@ -1217,31 +1217,31 @@
         <v>18.0</v>
       </c>
       <c r="E20" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F20" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G20" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H20" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.7316044330870541</v>
       </c>
       <c r="I20" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.9822472371849684</v>
       </c>
       <c r="J20" t="n" s="25">
-        <v>0.9999999725000644</v>
+        <v>0.999999602152718</v>
       </c>
       <c r="K20" t="n" s="25">
-        <v>0.9138984359801404</v>
+        <v>0.888422347765727</v>
       </c>
       <c r="L20" t="n" s="25">
-        <v>0.9997425131017905</v>
+        <v>0.9992116235241997</v>
       </c>
       <c r="M20" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999914961412879</v>
       </c>
       <c r="N20" t="n" s="25">
         <v>0.5</v>
@@ -1252,31 +1252,31 @@
         <v>19.0</v>
       </c>
       <c r="E21" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F21" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G21" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H21" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="I21" t="n" s="25">
-        <v>0.992936562550551</v>
+        <v>0.9876280663827864</v>
       </c>
       <c r="J21" t="n" s="25">
-        <v>0.9999999966836344</v>
+        <v>0.9999999389553557</v>
       </c>
       <c r="K21" t="n" s="25">
-        <v>0.9770765030198257</v>
+        <v>0.9635197905171162</v>
       </c>
       <c r="L21" t="n" s="25">
-        <v>0.9999961386581991</v>
+        <v>0.9999765013162607</v>
       </c>
       <c r="M21" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999956328</v>
       </c>
       <c r="N21" t="n" s="25">
         <v>0.5</v>
@@ -1287,31 +1287,31 @@
         <v>20.0</v>
       </c>
       <c r="E22" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F22" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G22" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H22" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.7316044330870541</v>
       </c>
       <c r="I22" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.9822472371849684</v>
       </c>
       <c r="J22" t="n" s="25">
-        <v>0.9999999725000644</v>
+        <v>0.999999602152718</v>
       </c>
       <c r="K22" t="n" s="25">
-        <v>0.9436078345505399</v>
+        <v>0.9214535332316106</v>
       </c>
       <c r="L22" t="n" s="25">
-        <v>0.9999319324218906</v>
+        <v>0.9997351763609814</v>
       </c>
       <c r="M22" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999998215587466</v>
       </c>
       <c r="N22" t="n" s="25">
         <v>0.5</v>
@@ -1322,31 +1322,31 @@
         <v>21.0</v>
       </c>
       <c r="E23" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F23" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G23" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H23" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="I23" t="n" s="25">
-        <v>0.992936562550551</v>
+        <v>0.9876280663827864</v>
       </c>
       <c r="J23" t="n" s="25">
-        <v>0.9999999966836344</v>
+        <v>0.9999999389553557</v>
       </c>
       <c r="K23" t="n" s="25">
-        <v>0.9459775006770934</v>
+        <v>0.9250811156436468</v>
       </c>
       <c r="L23" t="n" s="25">
-        <v>0.9999469924696223</v>
+        <v>0.9997961917049657</v>
       </c>
       <c r="M23" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999881367941</v>
       </c>
       <c r="N23" t="n" s="25">
         <v>0.5</v>
@@ -1357,31 +1357,31 @@
         <v>22.0</v>
       </c>
       <c r="E24" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F24" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G24" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H24" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.7316044330870541</v>
       </c>
       <c r="I24" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.9822472371849684</v>
       </c>
       <c r="J24" t="n" s="25">
-        <v>0.9999999725000644</v>
+        <v>0.999999602152718</v>
       </c>
       <c r="K24" t="n" s="25">
-        <v>0.9436078345505399</v>
+        <v>0.9214535332316106</v>
       </c>
       <c r="L24" t="n" s="25">
-        <v>0.9999319324218906</v>
+        <v>0.9997351763609814</v>
       </c>
       <c r="M24" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999998215587466</v>
       </c>
       <c r="N24" t="n" s="25">
         <v>0.5</v>
@@ -1392,31 +1392,31 @@
         <v>23.0</v>
       </c>
       <c r="E25" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F25" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G25" t="n" s="25">
-        <v>0.9968088971033306</v>
+        <v>0.9933225520474093</v>
       </c>
       <c r="H25" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.7316044330870541</v>
       </c>
       <c r="I25" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.9822472371849684</v>
       </c>
       <c r="J25" t="n" s="25">
-        <v>0.9999996335105977</v>
+        <v>0.9999956029834031</v>
       </c>
       <c r="K25" t="n" s="25">
-        <v>0.9138984359801404</v>
+        <v>0.888422347765727</v>
       </c>
       <c r="L25" t="n" s="25">
-        <v>0.998970847387104</v>
+        <v>0.9968539349478337</v>
       </c>
       <c r="M25" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9996241972731065</v>
       </c>
       <c r="N25" t="n" s="25">
         <v>0.5</v>
@@ -1427,31 +1427,31 @@
         <v>24.0</v>
       </c>
       <c r="E26" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F26" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G26" t="n" s="25">
-        <v>0.13114111166938652</v>
+        <v>0.09514530062866874</v>
       </c>
       <c r="H26" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="I26" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.22216373502169742</v>
       </c>
       <c r="J26" t="n" s="25">
-        <v>6.639663883450817E-4</v>
+        <v>1.9191034672597722E-4</v>
       </c>
       <c r="K26" t="n" s="25">
-        <v>0.7737325837106038</v>
+        <v>0.7487507733148961</v>
       </c>
       <c r="L26" t="n" s="25">
-        <v>5.769443496744066E-4</v>
+        <v>3.2572616337260074E-4</v>
       </c>
       <c r="M26" t="n" s="25">
-        <v>1.0</v>
+        <v>1.2726172777486173E-12</v>
       </c>
       <c r="N26" t="n" s="25">
         <v>0.5</v>
@@ -1462,31 +1462,31 @@
         <v>25.0</v>
       </c>
       <c r="E27" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F27" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G27" t="n" s="25">
-        <v>0.5483374922325466</v>
+        <v>0.5052149598749022</v>
       </c>
       <c r="H27" t="n" s="25">
-        <v>0.7618433263360782</v>
+        <v>0.7385601264156039</v>
       </c>
       <c r="I27" t="n" s="25">
-        <v>0.9682861331015631</v>
+        <v>0.9473786616870505</v>
       </c>
       <c r="J27" t="n" s="25">
-        <v>1.624375272816263E-4</v>
+        <v>8.254377494361847E-5</v>
       </c>
       <c r="K27" t="n" s="25">
-        <v>0.8819181686599766</v>
+        <v>0.8542867787449655</v>
       </c>
       <c r="L27" t="n" s="25">
-        <v>0.0023351965632952233</v>
+        <v>9.038377985849127E-4</v>
       </c>
       <c r="M27" t="n" s="25">
-        <v>1.7654859568125611E-15</v>
+        <v>5.879829641105383E-16</v>
       </c>
       <c r="N27" t="n" s="25">
         <v>0.5</v>
@@ -1497,31 +1497,31 @@
         <v>26.0</v>
       </c>
       <c r="E28" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F28" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G28" t="n" s="25">
-        <v>0.9968088971033306</v>
+        <v>0.9933225520474093</v>
       </c>
       <c r="H28" t="n" s="25">
-        <v>0.7122951412806107</v>
+        <v>0.692434158001273</v>
       </c>
       <c r="I28" t="n" s="25">
-        <v>0.9777692175117446</v>
+        <v>0.9665117971876827</v>
       </c>
       <c r="J28" t="n" s="25">
-        <v>0.9999690181546949</v>
+        <v>0.999755877771379</v>
       </c>
       <c r="K28" t="n" s="25">
-        <v>0.8953972389921141</v>
+        <v>0.8680094586607202</v>
       </c>
       <c r="L28" t="n" s="25">
-        <v>0.9978427664381618</v>
+        <v>0.9939861023838296</v>
       </c>
       <c r="M28" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9795495475633562</v>
       </c>
       <c r="N28" t="n" s="25">
         <v>0.5</v>
@@ -1532,31 +1532,31 @@
         <v>27.0</v>
       </c>
       <c r="E29" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F29" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G29" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H29" t="n" s="25">
-        <v>0.6553976139121288</v>
+        <v>0.6401785876614176</v>
       </c>
       <c r="I29" t="n" s="25">
-        <v>0.9434719745714708</v>
+        <v>0.9245978509765802</v>
       </c>
       <c r="J29" t="n" s="25">
-        <v>0.9972468511926885</v>
+        <v>0.9851211405752591</v>
       </c>
       <c r="K29" t="n" s="25">
-        <v>0.7297581602136269</v>
+        <v>0.7075836143247645</v>
       </c>
       <c r="L29" t="n" s="25">
-        <v>0.9807506894946164</v>
+        <v>0.9695879344009517</v>
       </c>
       <c r="M29" t="n" s="25">
-        <v>1.0</v>
+        <v>0.001405171572120686</v>
       </c>
       <c r="N29" t="n" s="25">
         <v>0.5</v>
@@ -1567,31 +1567,31 @@
         <v>28.0</v>
       </c>
       <c r="E30" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F30" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G30" t="n" s="25">
-        <v>0.024691130808242888</v>
+        <v>0.018426889008812446</v>
       </c>
       <c r="H30" t="n" s="25">
-        <v>0.6553976139121288</v>
+        <v>0.6401785876614176</v>
       </c>
       <c r="I30" t="n" s="25">
-        <v>0.05934541423616927</v>
+        <v>0.04429793486042239</v>
       </c>
       <c r="J30" t="n" s="25">
-        <v>9.526175972641569E-9</v>
+        <v>4.6420048138533225E-9</v>
       </c>
       <c r="K30" t="n" s="25">
-        <v>0.6553976139121289</v>
+        <v>0.6401785876614179</v>
       </c>
       <c r="L30" t="n" s="25">
-        <v>3.577172571567291E-7</v>
+        <v>2.6281121890408944E-7</v>
       </c>
       <c r="M30" t="n" s="25">
-        <v>7.656402041107634E-21</v>
+        <v>3.730883731321004E-21</v>
       </c>
       <c r="N30" t="n" s="25">
         <v>0.5</v>
@@ -1602,31 +1602,31 @@
         <v>29.0</v>
       </c>
       <c r="E31" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F31" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G31" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H31" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.7316044330870541</v>
       </c>
       <c r="I31" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.9822472371849684</v>
       </c>
       <c r="J31" t="n" s="25">
-        <v>0.9999999725000644</v>
+        <v>0.999999602152718</v>
       </c>
       <c r="K31" t="n" s="25">
-        <v>0.9596180024118807</v>
+        <v>0.9411497385795023</v>
       </c>
       <c r="L31" t="n" s="25">
-        <v>0.9999777493309582</v>
+        <v>0.9998990246732269</v>
       </c>
       <c r="M31" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999986435735</v>
       </c>
       <c r="N31" t="n" s="25">
         <v>0.5</v>
@@ -1637,31 +1637,31 @@
         <v>30.0</v>
       </c>
       <c r="E32" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F32" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G32" t="n" s="25">
-        <v>0.006883710137959071</v>
+        <v>0.005531324261731305</v>
       </c>
       <c r="H32" t="n" s="25">
-        <v>0.6553976139121288</v>
+        <v>0.6401785876614176</v>
       </c>
       <c r="I32" t="n" s="25">
-        <v>0.027606512357588524</v>
+        <v>0.02043186999249229</v>
       </c>
       <c r="J32" t="n" s="25">
-        <v>1.4345145418622691E-9</v>
+        <v>7.637287211176967E-10</v>
       </c>
       <c r="K32" t="n" s="25">
-        <v>0.6553976139121289</v>
+        <v>0.6401785876614179</v>
       </c>
       <c r="L32" t="n" s="25">
-        <v>9.05472049093007E-8</v>
+        <v>6.652410284292277E-8</v>
       </c>
       <c r="M32" t="n" s="25">
-        <v>6.485352837332754E-22</v>
+        <v>3.4527710110911434E-22</v>
       </c>
       <c r="N32" t="n" s="25">
         <v>0.5</v>
@@ -1672,31 +1672,31 @@
         <v>31.0</v>
       </c>
       <c r="E33" t="n" s="25">
-        <v>0.045721466238072286</v>
+        <v>0.0449791642494775</v>
       </c>
       <c r="F33" t="n" s="25">
-        <v>0.0010594566764149029</v>
+        <v>9.768802406985061E-4</v>
       </c>
       <c r="G33" t="n" s="25">
-        <v>1.0367813482860173E-5</v>
+        <v>9.190190664003083E-6</v>
       </c>
       <c r="H33" t="n" s="25">
-        <v>0.0010594566764149029</v>
+        <v>9.768802406985061E-4</v>
       </c>
       <c r="I33" t="n" s="25">
-        <v>1.56996654690413E-6</v>
+        <v>1.1105474428569482E-6</v>
       </c>
       <c r="J33" t="n" s="25">
-        <v>8.881326156653101E-14</v>
+        <v>5.413528113742381E-14</v>
       </c>
       <c r="K33" t="n" s="25">
-        <v>2.0314067463898518E-5</v>
+        <v>1.7504068019997685E-5</v>
       </c>
       <c r="L33" t="n" s="25">
-        <v>1.150906552429908E-13</v>
+        <v>6.409053111202428E-14</v>
       </c>
       <c r="M33" t="n" s="25">
-        <v>9.228898491199315E-28</v>
+        <v>4.4285314769264025E-28</v>
       </c>
       <c r="N33" t="n" s="25">
         <v>0.5</v>
@@ -1707,31 +1707,31 @@
         <v>32.0</v>
       </c>
       <c r="E34" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F34" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G34" t="n" s="25">
-        <v>0.033017563155576135</v>
+        <v>0.02791617358898927</v>
       </c>
       <c r="H34" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="I34" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.22216373502169742</v>
       </c>
       <c r="J34" t="n" s="25">
-        <v>2.7512384299220882E-8</v>
+        <v>1.5911814921900632E-8</v>
       </c>
       <c r="K34" t="n" s="25">
-        <v>0.7845431616827375</v>
+        <v>0.757717393670312</v>
       </c>
       <c r="L34" t="n" s="25">
-        <v>2.814099341545634E-6</v>
+        <v>1.516017070567621E-6</v>
       </c>
       <c r="M34" t="n" s="25">
-        <v>2.57894690037161E-20</v>
+        <v>1.1971885711790558E-20</v>
       </c>
       <c r="N34" t="n" s="25">
         <v>0.5</v>
@@ -1742,31 +1742,31 @@
         <v>33.0</v>
       </c>
       <c r="E35" t="n" s="25">
-        <v>0.006246915463928621</v>
+        <v>0.006182428155206465</v>
       </c>
       <c r="F35" t="n" s="25">
-        <v>5.717797461303841E-5</v>
+        <v>5.384158815076992E-5</v>
       </c>
       <c r="G35" t="n" s="25">
-        <v>4.5389724686753175E-7</v>
+        <v>3.920573777893729E-7</v>
       </c>
       <c r="H35" t="n" s="25">
-        <v>5.717797461303841E-5</v>
+        <v>5.384158815076992E-5</v>
       </c>
       <c r="I35" t="n" s="25">
-        <v>1.988399400063767E-9</v>
+        <v>1.549081609697306E-9</v>
       </c>
       <c r="J35" t="n" s="25">
-        <v>3.044564210327424E-17</v>
+        <v>1.9500316986521997E-17</v>
       </c>
       <c r="K35" t="n" s="25">
-        <v>6.484352662826217E-8</v>
+        <v>6.105964478314042E-8</v>
       </c>
       <c r="L35" t="n" s="25">
-        <v>7.191546029979546E-18</v>
+        <v>5.6026428569036974E-18</v>
       </c>
       <c r="M35" t="n" s="25">
-        <v>7.804352014252185E-32</v>
+        <v>4.998657529904819E-32</v>
       </c>
       <c r="N35" t="n" s="25">
         <v>0.5</v>
@@ -1777,31 +1777,31 @@
         <v>34.0</v>
       </c>
       <c r="E36" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F36" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G36" t="n" s="25">
-        <v>0.033017563155576135</v>
+        <v>0.02791617358898927</v>
       </c>
       <c r="H36" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="I36" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.22216373502169742</v>
       </c>
       <c r="J36" t="n" s="25">
-        <v>9.629334676929182E-9</v>
+        <v>5.569135280265005E-9</v>
       </c>
       <c r="K36" t="n" s="25">
-        <v>0.7022311691808127</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="L36" t="n" s="25">
-        <v>2.7144698271730495E-7</v>
+        <v>1.8218829982493006E-7</v>
       </c>
       <c r="M36" t="n" s="25">
-        <v>8.706727141202958E-22</v>
+        <v>5.035544274623008E-22</v>
       </c>
       <c r="N36" t="n" s="25">
         <v>0.5</v>
@@ -1812,31 +1812,31 @@
         <v>35.0</v>
       </c>
       <c r="E37" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F37" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G37" t="n" s="25">
-        <v>0.033017563155576135</v>
+        <v>0.02791617358898927</v>
       </c>
       <c r="H37" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="I37" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.22216373502169742</v>
       </c>
       <c r="J37" t="n" s="25">
-        <v>2.7512384299220882E-8</v>
+        <v>1.5911814921900632E-8</v>
       </c>
       <c r="K37" t="n" s="25">
-        <v>0.7845431616827375</v>
+        <v>0.757717393670312</v>
       </c>
       <c r="L37" t="n" s="25">
-        <v>2.814099341545634E-6</v>
+        <v>1.516017070567621E-6</v>
       </c>
       <c r="M37" t="n" s="25">
-        <v>2.57894690037161E-20</v>
+        <v>1.1971885711790558E-20</v>
       </c>
       <c r="N37" t="n" s="25">
         <v>0.5</v>
@@ -1847,31 +1847,31 @@
         <v>36.0</v>
       </c>
       <c r="E38" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F38" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G38" t="n" s="25">
-        <v>0.19108669698532876</v>
+        <v>0.14656481347770464</v>
       </c>
       <c r="H38" t="n" s="25">
-        <v>0.7284965309314696</v>
+        <v>0.7071485155481354</v>
       </c>
       <c r="I38" t="n" s="25">
-        <v>0.5902141955906135</v>
+        <v>0.47800922145397884</v>
       </c>
       <c r="J38" t="n" s="25">
-        <v>0.009262628580894647</v>
+        <v>0.002991385336354544</v>
       </c>
       <c r="K38" t="n" s="25">
-        <v>0.9044913421804115</v>
+        <v>0.8772336177014238</v>
       </c>
       <c r="L38" t="n" s="25">
-        <v>0.13290386662325926</v>
+        <v>0.04923504549776825</v>
       </c>
       <c r="M38" t="n" s="25">
-        <v>1.410315885121186E-10</v>
+        <v>2.4050507864457616E-11</v>
       </c>
       <c r="N38" t="n" s="25">
         <v>0.5</v>
@@ -1882,31 +1882,31 @@
         <v>37.0</v>
       </c>
       <c r="E39" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F39" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G39" t="n" s="25">
-        <v>0.033017563155576135</v>
+        <v>0.02791617358898927</v>
       </c>
       <c r="H39" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="I39" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.22216373502169742</v>
       </c>
       <c r="J39" t="n" s="25">
-        <v>2.407333634460763E-8</v>
+        <v>1.3922838084355258E-8</v>
       </c>
       <c r="K39" t="n" s="25">
-        <v>0.7880370721946085</v>
+        <v>0.7604100612629134</v>
       </c>
       <c r="L39" t="n" s="25">
-        <v>2.567563211675575E-6</v>
+        <v>1.3566392740026902E-6</v>
       </c>
       <c r="M39" t="n" s="25">
-        <v>2.0588848886844645E-20</v>
+        <v>9.37412715123976E-21</v>
       </c>
       <c r="N39" t="n" s="25">
         <v>0.5</v>
@@ -1917,31 +1917,31 @@
         <v>38.0</v>
       </c>
       <c r="E40" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F40" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G40" t="n" s="25">
-        <v>0.008463985931423034</v>
+        <v>0.007128289318758571</v>
       </c>
       <c r="H40" t="n" s="25">
-        <v>0.6860785771042868</v>
+        <v>0.6680425829099689</v>
       </c>
       <c r="I40" t="n" s="25">
-        <v>0.07353001081552028</v>
+        <v>0.052200206417266824</v>
       </c>
       <c r="J40" t="n" s="25">
-        <v>1.2827793733791656E-9</v>
+        <v>7.670618148657285E-10</v>
       </c>
       <c r="K40" t="n" s="25">
-        <v>0.7714021066458305</v>
+        <v>0.7450069766943053</v>
       </c>
       <c r="L40" t="n" s="25">
-        <v>5.248366292051302E-7</v>
+        <v>2.9233125614234926E-7</v>
       </c>
       <c r="M40" t="n" s="25">
-        <v>1.2024475109404543E-21</v>
+        <v>5.771294027392639E-22</v>
       </c>
       <c r="N40" t="n" s="25">
         <v>0.5</v>
@@ -1952,31 +1952,31 @@
         <v>39.0</v>
       </c>
       <c r="E41" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F41" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G41" t="n" s="25">
-        <v>0.981526796893504</v>
+        <v>0.9671803425550953</v>
       </c>
       <c r="H41" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.7316044330870541</v>
       </c>
       <c r="I41" t="n" s="25">
-        <v>0.9764893150342865</v>
+        <v>0.9613872289691694</v>
       </c>
       <c r="J41" t="n" s="25">
-        <v>0.9999969994870932</v>
+        <v>0.9999745422512643</v>
       </c>
       <c r="K41" t="n" s="25">
-        <v>0.9627368853578661</v>
+        <v>0.9445419984089428</v>
       </c>
       <c r="L41" t="n" s="25">
-        <v>0.9999073637330939</v>
+        <v>0.9995510484295643</v>
       </c>
       <c r="M41" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9998606186949656</v>
       </c>
       <c r="N41" t="n" s="25">
         <v>0.5</v>
@@ -1987,31 +1987,31 @@
         <v>40.0</v>
       </c>
       <c r="E42" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F42" t="n" s="25">
-        <v>0.05757186612590944</v>
+        <v>0.052042372113665365</v>
       </c>
       <c r="G42" t="n" s="25">
-        <v>0.0011770896777079402</v>
+        <v>8.824506109392251E-4</v>
       </c>
       <c r="H42" t="n" s="25">
-        <v>0.05234631848308271</v>
+        <v>0.047792567550357115</v>
       </c>
       <c r="I42" t="n" s="25">
-        <v>1.2237846845151834E-5</v>
+        <v>8.945513562739229E-6</v>
       </c>
       <c r="J42" t="n" s="25">
-        <v>4.553933540452701E-13</v>
+        <v>2.488133294112103E-13</v>
       </c>
       <c r="K42" t="n" s="25">
-        <v>2.2366311325667078E-4</v>
+        <v>2.0323361707310776E-4</v>
       </c>
       <c r="L42" t="n" s="25">
-        <v>1.7564202199803633E-13</v>
+        <v>1.283888364402877E-13</v>
       </c>
       <c r="M42" t="n" s="25">
-        <v>2.3161563034954754E-27</v>
+        <v>1.2654786377318626E-27</v>
       </c>
       <c r="N42" t="n" s="25">
         <v>0.5</v>
@@ -2022,31 +2022,31 @@
         <v>41.0</v>
       </c>
       <c r="E43" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F43" t="n" s="25">
-        <v>0.7569999973298706</v>
+        <v>0.7340691274635647</v>
       </c>
       <c r="G43" t="n" s="25">
-        <v>0.06338497485506275</v>
+        <v>0.05450990168470188</v>
       </c>
       <c r="H43" t="n" s="25">
-        <v>0.7284965309314696</v>
+        <v>0.7071485155481354</v>
       </c>
       <c r="I43" t="n" s="25">
-        <v>0.49448510568597837</v>
+        <v>0.3948432991231501</v>
       </c>
       <c r="J43" t="n" s="25">
-        <v>1.2296837405204546E-7</v>
+        <v>7.067847636404612E-8</v>
       </c>
       <c r="K43" t="n" s="25">
-        <v>0.8087945601342291</v>
+        <v>0.7805904607825248</v>
       </c>
       <c r="L43" t="n" s="25">
-        <v>9.836492962867764E-7</v>
+        <v>6.131924099155222E-7</v>
       </c>
       <c r="M43" t="n" s="25">
-        <v>1.7528227671732087E-20</v>
+        <v>9.415651775896182E-21</v>
       </c>
       <c r="N43" t="n" s="25">
         <v>0.5</v>
@@ -2057,31 +2057,31 @@
         <v>42.0</v>
       </c>
       <c r="E44" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F44" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G44" t="n" s="25">
-        <v>0.0471745516433857</v>
+        <v>0.038211116545414155</v>
       </c>
       <c r="H44" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="I44" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.22216373502169742</v>
       </c>
       <c r="J44" t="n" s="25">
-        <v>4.388223490804888E-7</v>
+        <v>2.134295074474638E-7</v>
       </c>
       <c r="K44" t="n" s="25">
-        <v>0.7845431616827375</v>
+        <v>0.757717393670312</v>
       </c>
       <c r="L44" t="n" s="25">
-        <v>1.40703383264089E-5</v>
+        <v>7.580039386961685E-6</v>
       </c>
       <c r="M44" t="n" s="25">
-        <v>2.0567101530463616E-18</v>
+        <v>8.029109777590816E-19</v>
       </c>
       <c r="N44" t="n" s="25">
         <v>0.5</v>
@@ -2092,31 +2092,31 @@
         <v>43.0</v>
       </c>
       <c r="E45" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F45" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G45" t="n" s="25">
-        <v>0.12016735311060146</v>
+        <v>0.10303561408963409</v>
       </c>
       <c r="H45" t="n" s="25">
-        <v>0.7202792732449277</v>
+        <v>0.6996969133754082</v>
       </c>
       <c r="I45" t="n" s="25">
-        <v>0.6620819930112958</v>
+        <v>0.5587762818982293</v>
       </c>
       <c r="J45" t="n" s="25">
-        <v>4.926113887948835E-7</v>
+        <v>2.7437167465361623E-7</v>
       </c>
       <c r="K45" t="n" s="25">
-        <v>0.7956557842747726</v>
+        <v>0.7690884299928435</v>
       </c>
       <c r="L45" t="n" s="25">
-        <v>1.4488483058016706E-5</v>
+        <v>7.64738762623433E-6</v>
       </c>
       <c r="M45" t="n" s="25">
-        <v>5.163646440254665E-19</v>
+        <v>2.348549793560446E-19</v>
       </c>
       <c r="N45" t="n" s="25">
         <v>0.5</v>
@@ -2127,31 +2127,31 @@
         <v>45.0</v>
       </c>
       <c r="E46" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F46" t="n" s="25">
-        <v>8.647858354859329E-4</v>
+        <v>8.025490472864022E-4</v>
       </c>
       <c r="G46" t="n" s="25">
-        <v>5.03688479226789E-10</v>
+        <v>4.3683420700047877E-10</v>
       </c>
       <c r="H46" t="n" s="25">
-        <v>6.655342993343573E-4</v>
+        <v>6.347848443959018E-4</v>
       </c>
       <c r="I46" t="n" s="25">
-        <v>1.4114620379083903E-13</v>
+        <v>1.2506931905717439E-13</v>
       </c>
       <c r="J46" t="n" s="25">
-        <v>9.053702868323128E-27</v>
+        <v>7.497672701052631E-27</v>
       </c>
       <c r="K46" t="n" s="25">
-        <v>1.1328276505799824E-7</v>
+        <v>1.0804547599599493E-7</v>
       </c>
       <c r="L46" t="n" s="25">
-        <v>3.8286803174500814E-24</v>
+        <v>3.392584620275561E-24</v>
       </c>
       <c r="M46" t="n" s="25">
-        <v>8.70300468337464E-44</v>
+        <v>7.207247860980099E-44</v>
       </c>
       <c r="N46" t="n" s="25">
         <v>0.5</v>
@@ -2162,31 +2162,31 @@
         <v>46.0</v>
       </c>
       <c r="E47" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F47" t="n" s="25">
-        <v>0.11089545372339416</v>
+        <v>0.10058268341625781</v>
       </c>
       <c r="G47" t="n" s="25">
-        <v>3.1833950033621685E-4</v>
+        <v>2.2383804051887406E-4</v>
       </c>
       <c r="H47" t="n" s="25">
-        <v>0.09770416462520505</v>
+        <v>0.08970248000115404</v>
       </c>
       <c r="I47" t="n" s="25">
-        <v>7.934997223840898E-7</v>
+        <v>6.223184512083524E-7</v>
       </c>
       <c r="J47" t="n" s="25">
-        <v>1.3026001725608736E-14</v>
+        <v>7.179920814258444E-15</v>
       </c>
       <c r="K47" t="n" s="25">
-        <v>4.6398318297364953E-4</v>
+        <v>3.9919139809219156E-4</v>
       </c>
       <c r="L47" t="n" s="25">
-        <v>3.4441481521003886E-14</v>
+        <v>2.5535329417928523E-14</v>
       </c>
       <c r="M47" t="n" s="25">
-        <v>5.72454355611416E-28</v>
+        <v>2.9829309711616175E-28</v>
       </c>
       <c r="N47" t="n" s="25">
         <v>0.5</v>
@@ -2197,31 +2197,31 @@
         <v>47.0</v>
       </c>
       <c r="E48" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F48" t="n" s="25">
-        <v>0.02785531353180161</v>
+        <v>0.025505304075420836</v>
       </c>
       <c r="G48" t="n" s="25">
-        <v>6.813508744903881E-4</v>
+        <v>5.258962820114431E-4</v>
       </c>
       <c r="H48" t="n" s="25">
-        <v>0.02785531353180161</v>
+        <v>0.025505304075420836</v>
       </c>
       <c r="I48" t="n" s="25">
-        <v>3.508789999612214E-6</v>
+        <v>2.628274935860013E-6</v>
       </c>
       <c r="J48" t="n" s="25">
-        <v>1.9326232311863147E-13</v>
+        <v>1.096199313960215E-13</v>
       </c>
       <c r="K48" t="n" s="25">
-        <v>4.873716815823577E-5</v>
+        <v>4.451803690667452E-5</v>
       </c>
       <c r="L48" t="n" s="25">
-        <v>2.719385388270387E-14</v>
+        <v>2.0369660664815387E-14</v>
       </c>
       <c r="M48" t="n" s="25">
-        <v>1.5165407583778182E-27</v>
+        <v>8.601940161434726E-28</v>
       </c>
       <c r="N48" t="n" s="25">
         <v>0.5</v>
@@ -2232,31 +2232,31 @@
         <v>49.0</v>
       </c>
       <c r="E49" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F49" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G49" t="n" s="25">
-        <v>0.004757549969441033</v>
+        <v>0.0040044016131334445</v>
       </c>
       <c r="H49" t="n" s="25">
-        <v>0.6553976139121288</v>
+        <v>0.6401785876614176</v>
       </c>
       <c r="I49" t="n" s="25">
-        <v>0.027606512357588524</v>
+        <v>0.02043186999249229</v>
       </c>
       <c r="J49" t="n" s="25">
-        <v>8.99382159116667E-11</v>
+        <v>5.6938273505826416E-11</v>
       </c>
       <c r="K49" t="n" s="25">
-        <v>0.6553976139121289</v>
+        <v>0.6401785876614179</v>
       </c>
       <c r="L49" t="n" s="25">
-        <v>1.810944229366764E-8</v>
+        <v>1.3304821276657585E-8</v>
       </c>
       <c r="M49" t="n" s="25">
-        <v>8.13210387126363E-24</v>
+        <v>5.148289297169116E-24</v>
       </c>
       <c r="N49" t="n" s="25">
         <v>0.5</v>
@@ -2267,31 +2267,31 @@
         <v>50.0</v>
       </c>
       <c r="E50" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F50" t="n" s="25">
-        <v>0.11926232992286069</v>
+        <v>0.10948156680411794</v>
       </c>
       <c r="G50" t="n" s="25">
-        <v>4.6328981967779436E-5</v>
+        <v>4.044001408152719E-5</v>
       </c>
       <c r="H50" t="n" s="25">
-        <v>0.086905653069955</v>
+        <v>0.08236190034109239</v>
       </c>
       <c r="I50" t="n" s="25">
-        <v>1.108461387787369E-5</v>
+        <v>8.738617056382668E-6</v>
       </c>
       <c r="J50" t="n" s="25">
-        <v>8.778901134917912E-15</v>
+        <v>5.963721260824478E-15</v>
       </c>
       <c r="K50" t="n" s="25">
-        <v>0.005113282249834816</v>
+        <v>0.0048233509063590274</v>
       </c>
       <c r="L50" t="n" s="25">
-        <v>3.8181652846547327E-13</v>
+        <v>3.0100647954163105E-13</v>
       </c>
       <c r="M50" t="n" s="25">
-        <v>4.2863987232010356E-29</v>
+        <v>2.911855003839712E-29</v>
       </c>
       <c r="N50" t="n" s="25">
         <v>0.5</v>
@@ -2302,31 +2302,31 @@
         <v>51.0</v>
       </c>
       <c r="E51" t="n" s="25">
-        <v>0.27514364076773395</v>
+        <v>0.2703541024213217</v>
       </c>
       <c r="F51" t="n" s="25">
-        <v>4.897488086793816E-4</v>
+        <v>4.5752308547672465E-4</v>
       </c>
       <c r="G51" t="n" s="25">
-        <v>2.8727029489307932E-6</v>
+        <v>1.998150290798302E-6</v>
       </c>
       <c r="H51" t="n" s="25">
-        <v>4.897488086793816E-4</v>
+        <v>4.5752308547672465E-4</v>
       </c>
       <c r="I51" t="n" s="25">
-        <v>4.034598531629884E-14</v>
+        <v>3.606934679719084E-14</v>
       </c>
       <c r="J51" t="n" s="25">
-        <v>2.0748623408910642E-23</v>
+        <v>1.3901061764335127E-23</v>
       </c>
       <c r="K51" t="n" s="25">
-        <v>3.125515930969666E-11</v>
+        <v>2.919761239570629E-11</v>
       </c>
       <c r="L51" t="n" s="25">
-        <v>2.188820892378171E-24</v>
+        <v>1.956807826731423E-24</v>
       </c>
       <c r="M51" t="n" s="25">
-        <v>2.1274579835762734E-36</v>
+        <v>1.425343949228985E-36</v>
       </c>
       <c r="N51" t="n" s="25">
         <v>0.5</v>
@@ -2337,31 +2337,31 @@
         <v>52.0</v>
       </c>
       <c r="E52" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F52" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G52" t="n" s="25">
-        <v>0.029457011553773376</v>
+        <v>0.024891585169378644</v>
       </c>
       <c r="H52" t="n" s="25">
-        <v>0.7052854703577858</v>
+        <v>0.6856762743610988</v>
       </c>
       <c r="I52" t="n" s="25">
-        <v>0.2812335120236691</v>
+        <v>0.2069696726759453</v>
       </c>
       <c r="J52" t="n" s="25">
-        <v>7.869976845152644E-9</v>
+        <v>4.523422786546232E-9</v>
       </c>
       <c r="K52" t="n" s="25">
-        <v>0.705285470357786</v>
+        <v>0.6856762743610989</v>
       </c>
       <c r="L52" t="n" s="25">
-        <v>2.4958284047723093E-7</v>
+        <v>1.6647630416016817E-7</v>
       </c>
       <c r="M52" t="n" s="25">
-        <v>7.115937204046461E-22</v>
+        <v>4.090023772880793E-22</v>
       </c>
       <c r="N52" t="n" s="25">
         <v>0.5</v>
@@ -2372,31 +2372,31 @@
         <v>53.0</v>
       </c>
       <c r="E53" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F53" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G53" t="n" s="25">
-        <v>0.9756082281569948</v>
+        <v>0.9614888725778613</v>
       </c>
       <c r="H53" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="I53" t="n" s="25">
-        <v>0.9771780330675633</v>
+        <v>0.9618083871164392</v>
       </c>
       <c r="J53" t="n" s="25">
-        <v>0.9717622464908452</v>
+        <v>0.8767946857613232</v>
       </c>
       <c r="K53" t="n" s="25">
-        <v>0.8314370370688623</v>
+        <v>0.7838276958322195</v>
       </c>
       <c r="L53" t="n" s="25">
-        <v>0.6927841416980128</v>
+        <v>0.4151720613518867</v>
       </c>
       <c r="M53" t="n" s="25">
-        <v>1.0</v>
+        <v>1.3913388616296457E-6</v>
       </c>
       <c r="N53" t="n" s="25">
         <v>0.5</v>
@@ -2407,31 +2407,31 @@
         <v>54.0</v>
       </c>
       <c r="E54" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F54" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G54" t="n" s="25">
-        <v>0.9707985521682724</v>
+        <v>0.9562099682450294</v>
       </c>
       <c r="H54" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="I54" t="n" s="25">
-        <v>0.992936562550551</v>
+        <v>0.9876280663827864</v>
       </c>
       <c r="J54" t="n" s="25">
-        <v>0.9994876186617352</v>
+        <v>0.997447971596688</v>
       </c>
       <c r="K54" t="n" s="25">
-        <v>0.9470347883984256</v>
+        <v>0.9261480365065414</v>
       </c>
       <c r="L54" t="n" s="25">
-        <v>0.9962503889957453</v>
+        <v>0.9854889406918442</v>
       </c>
       <c r="M54" t="n" s="25">
-        <v>1.0</v>
+        <v>0.04491111764709113</v>
       </c>
       <c r="N54" t="n" s="25">
         <v>0.5</v>
@@ -2442,31 +2442,31 @@
         <v>55.0</v>
       </c>
       <c r="E55" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F55" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G55" t="n" s="25">
-        <v>0.7562607966539234</v>
+        <v>0.7142641261051447</v>
       </c>
       <c r="H55" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.7316044330870541</v>
       </c>
       <c r="I55" t="n" s="25">
-        <v>0.9764893150342865</v>
+        <v>0.9613872289691694</v>
       </c>
       <c r="J55" t="n" s="25">
-        <v>0.02556588849127701</v>
+        <v>0.01141140462127507</v>
       </c>
       <c r="K55" t="n" s="25">
-        <v>0.9138984359801404</v>
+        <v>0.888422347765727</v>
       </c>
       <c r="L55" t="n" s="25">
-        <v>0.21580058231525912</v>
+        <v>0.08242491447673707</v>
       </c>
       <c r="M55" t="n" s="25">
-        <v>2.4640831711732882E-11</v>
+        <v>5.9033167926756635E-12</v>
       </c>
       <c r="N55" t="n" s="25">
         <v>0.5</v>
@@ -2477,31 +2477,31 @@
         <v>56.0</v>
       </c>
       <c r="E56" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F56" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G56" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H56" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.7316044330870541</v>
       </c>
       <c r="I56" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.9822472371849684</v>
       </c>
       <c r="J56" t="n" s="25">
-        <v>0.9999999725000644</v>
+        <v>0.999999602152718</v>
       </c>
       <c r="K56" t="n" s="25">
-        <v>0.9389893343444585</v>
+        <v>0.9167734363556469</v>
       </c>
       <c r="L56" t="n" s="25">
-        <v>0.9999192688331611</v>
+        <v>0.9997059754170516</v>
       </c>
       <c r="M56" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999226837086</v>
       </c>
       <c r="N56" t="n" s="25">
         <v>0.5</v>
@@ -2512,31 +2512,31 @@
         <v>57.0</v>
       </c>
       <c r="E57" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F57" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G57" t="n" s="25">
-        <v>0.7872831561304904</v>
+        <v>0.7299087990267704</v>
       </c>
       <c r="H57" t="n" s="25">
-        <v>0.7618433263360781</v>
+        <v>0.7385601264156039</v>
       </c>
       <c r="I57" t="n" s="25">
-        <v>0.9682861331015631</v>
+        <v>0.9473786616870505</v>
       </c>
       <c r="J57" t="n" s="25">
-        <v>0.19741989995118314</v>
+        <v>0.06911071653930524</v>
       </c>
       <c r="K57" t="n" s="25">
-        <v>0.828683506180803</v>
+        <v>0.801518843109674</v>
       </c>
       <c r="L57" t="n" s="25">
-        <v>0.029224090796057377</v>
+        <v>0.01428853054705554</v>
       </c>
       <c r="M57" t="n" s="25">
-        <v>3.4378989932860975E-11</v>
+        <v>8.473180946605614E-12</v>
       </c>
       <c r="N57" t="n" s="25">
         <v>0.5</v>
@@ -2547,31 +2547,31 @@
         <v>58.0</v>
       </c>
       <c r="E58" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F58" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G58" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H58" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="I58" t="n" s="25">
-        <v>0.972241196527547</v>
+        <v>0.9591963679410247</v>
       </c>
       <c r="J58" t="n" s="25">
-        <v>0.9999673447003828</v>
+        <v>0.9997281004082165</v>
       </c>
       <c r="K58" t="n" s="25">
-        <v>0.7022311691808127</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="L58" t="n" s="25">
-        <v>0.972241196527547</v>
+        <v>0.9591963679410247</v>
       </c>
       <c r="M58" t="n" s="25">
-        <v>0.004321894584155071</v>
+        <v>5.209189065932091E-4</v>
       </c>
       <c r="N58" t="n" s="25">
         <v>0.5</v>
@@ -2582,31 +2582,31 @@
         <v>59.0</v>
       </c>
       <c r="E59" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F59" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G59" t="n" s="25">
-        <v>0.8344527617780872</v>
+        <v>0.7431611038296349</v>
       </c>
       <c r="H59" t="n" s="25">
-        <v>0.7202792732449277</v>
+        <v>0.6996969133754081</v>
       </c>
       <c r="I59" t="n" s="25">
-        <v>0.8132235840234797</v>
+        <v>0.7378270087663071</v>
       </c>
       <c r="J59" t="n" s="25">
-        <v>0.9714717077835652</v>
+        <v>0.8516515923463309</v>
       </c>
       <c r="K59" t="n" s="25">
-        <v>0.7956557842747726</v>
+        <v>0.7690884299928434</v>
       </c>
       <c r="L59" t="n" s="25">
-        <v>0.3229491826400221</v>
+        <v>0.20112977705989435</v>
       </c>
       <c r="M59" t="n" s="25">
-        <v>5.288131135109775E-7</v>
+        <v>7.280071564751078E-8</v>
       </c>
       <c r="N59" t="n" s="25">
         <v>0.5</v>
@@ -2617,31 +2617,31 @@
         <v>60.0</v>
       </c>
       <c r="E60" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F60" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G60" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H60" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.7316044330870541</v>
       </c>
       <c r="I60" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.9822472371849684</v>
       </c>
       <c r="J60" t="n" s="25">
-        <v>0.9999999725000644</v>
+        <v>0.999999602152718</v>
       </c>
       <c r="K60" t="n" s="25">
-        <v>0.8227607568535849</v>
+        <v>0.7957750094823669</v>
       </c>
       <c r="L60" t="n" s="25">
-        <v>0.9968944035858028</v>
+        <v>0.993676360438277</v>
       </c>
       <c r="M60" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9609717109117076</v>
       </c>
       <c r="N60" t="n" s="25">
         <v>0.5</v>
@@ -2652,31 +2652,31 @@
         <v>61.0</v>
       </c>
       <c r="E61" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F61" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G61" t="n" s="25">
-        <v>0.9346575308485182</v>
+        <v>0.9044526655510962</v>
       </c>
       <c r="H61" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.7316044330870541</v>
       </c>
       <c r="I61" t="n" s="25">
-        <v>0.9764893150342865</v>
+        <v>0.9613872289691694</v>
       </c>
       <c r="J61" t="n" s="25">
-        <v>0.9991571617489646</v>
+        <v>0.9960734484475715</v>
       </c>
       <c r="K61" t="n" s="25">
-        <v>0.9138984359801404</v>
+        <v>0.888422347765727</v>
       </c>
       <c r="L61" t="n" s="25">
-        <v>0.9909970205122328</v>
+        <v>0.9729229368140074</v>
       </c>
       <c r="M61" t="n" s="25">
-        <v>4.451466843864698E-4</v>
+        <v>5.189076766691937E-5</v>
       </c>
       <c r="N61" t="n" s="25">
         <v>0.5</v>
@@ -2687,31 +2687,31 @@
         <v>62.0</v>
       </c>
       <c r="E62" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F62" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G62" t="n" s="25">
-        <v>0.9841131987958429</v>
+        <v>0.9733119351616559</v>
       </c>
       <c r="H62" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.7316044330870541</v>
       </c>
       <c r="I62" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.9822472371849684</v>
       </c>
       <c r="J62" t="n" s="25">
-        <v>0.998851210711788</v>
+        <v>0.9934937995407903</v>
       </c>
       <c r="K62" t="n" s="25">
-        <v>0.9138984359801404</v>
+        <v>0.888422347765727</v>
       </c>
       <c r="L62" t="n" s="25">
-        <v>0.9732622069097371</v>
+        <v>0.9223732172553919</v>
       </c>
       <c r="M62" t="n" s="25">
-        <v>1.0</v>
+        <v>1.1309763024657469E-4</v>
       </c>
       <c r="N62" t="n" s="25">
         <v>0.5</v>
@@ -2722,31 +2722,31 @@
         <v>63.0</v>
       </c>
       <c r="E63" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F63" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G63" t="n" s="25">
-        <v>0.9738134916856797</v>
+        <v>0.9552994161818187</v>
       </c>
       <c r="H63" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.7316044330870541</v>
       </c>
       <c r="I63" t="n" s="25">
-        <v>0.9764893150342865</v>
+        <v>0.9613872289691694</v>
       </c>
       <c r="J63" t="n" s="25">
-        <v>0.9998655631626943</v>
+        <v>0.9989808851776693</v>
       </c>
       <c r="K63" t="n" s="25">
-        <v>0.8753024662366632</v>
+        <v>0.8477949709403928</v>
       </c>
       <c r="L63" t="n" s="25">
-        <v>0.931338587112266</v>
+        <v>0.8442905971159711</v>
       </c>
       <c r="M63" t="n" s="25">
-        <v>1.0</v>
+        <v>7.357813984730934E-4</v>
       </c>
       <c r="N63" t="n" s="25">
         <v>0.5</v>
@@ -2757,31 +2757,31 @@
         <v>64.0</v>
       </c>
       <c r="E64" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F64" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G64" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H64" t="n" s="25">
-        <v>0.7202792732449277</v>
+        <v>0.6996969133754081</v>
       </c>
       <c r="I64" t="n" s="25">
-        <v>0.9797479520785931</v>
+        <v>0.9690112036423819</v>
       </c>
       <c r="J64" t="n" s="25">
-        <v>0.9999969161887128</v>
+        <v>0.9999691271621437</v>
       </c>
       <c r="K64" t="n" s="25">
-        <v>0.8573872222225585</v>
+        <v>0.8286349044740196</v>
       </c>
       <c r="L64" t="n" s="25">
-        <v>0.9983646685504072</v>
+        <v>0.9961485452698957</v>
       </c>
       <c r="M64" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9476044236143539</v>
       </c>
       <c r="N64" t="n" s="25">
         <v>0.5</v>
@@ -2792,31 +2792,31 @@
         <v>65.0</v>
       </c>
       <c r="E65" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F65" t="n" s="25">
-        <v>0.7595168408926141</v>
+        <v>0.7363918248531861</v>
       </c>
       <c r="G65" t="n" s="25">
-        <v>0.9596032061928864</v>
+        <v>0.9352679666117054</v>
       </c>
       <c r="H65" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.7316044330870541</v>
       </c>
       <c r="I65" t="n" s="25">
-        <v>0.9668243107018278</v>
+        <v>0.9479931160663277</v>
       </c>
       <c r="J65" t="n" s="25">
-        <v>0.9987535901101081</v>
+        <v>0.9924884457360275</v>
       </c>
       <c r="K65" t="n" s="25">
-        <v>0.9424911485327869</v>
+        <v>0.9203812701916123</v>
       </c>
       <c r="L65" t="n" s="25">
-        <v>0.8994361480106599</v>
+        <v>0.7412239616309663</v>
       </c>
       <c r="M65" t="n" s="25">
-        <v>1.0</v>
+        <v>0.0017395896568625272</v>
       </c>
       <c r="N65" t="n" s="25">
         <v>0.5</v>
@@ -2827,31 +2827,31 @@
         <v>66.0</v>
       </c>
       <c r="E66" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F66" t="n" s="25">
-        <v>0.4897112955352949</v>
+        <v>0.4587254838796097</v>
       </c>
       <c r="G66" t="n" s="25">
-        <v>0.001861362588681025</v>
+        <v>0.0015143623157138379</v>
       </c>
       <c r="H66" t="n" s="25">
-        <v>0.3632879002768594</v>
+        <v>0.34800195742291073</v>
       </c>
       <c r="I66" t="n" s="25">
-        <v>0.002334648471690322</v>
+        <v>0.0017325567645232747</v>
       </c>
       <c r="J66" t="n" s="25">
-        <v>1.50868429919099E-10</v>
+        <v>8.212062737763745E-11</v>
       </c>
       <c r="K66" t="n" s="25">
-        <v>0.14615340448718184</v>
+        <v>0.1380232368399861</v>
       </c>
       <c r="L66" t="n" s="25">
-        <v>2.985397632888149E-9</v>
+        <v>2.214145420071807E-9</v>
       </c>
       <c r="M66" t="n" s="25">
-        <v>2.728267912888802E-23</v>
+        <v>1.4850494087162245E-23</v>
       </c>
       <c r="N66" t="n" s="25">
         <v>0.5</v>
@@ -2862,31 +2862,31 @@
         <v>67.0</v>
       </c>
       <c r="E67" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F67" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G67" t="n" s="25">
-        <v>0.6111637433433438</v>
+        <v>0.5789469541360089</v>
       </c>
       <c r="H67" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.7316044330870541</v>
       </c>
       <c r="I67" t="n" s="25">
-        <v>0.9764893150342865</v>
+        <v>0.9613872289691694</v>
       </c>
       <c r="J67" t="n" s="25">
-        <v>0.0012600011554655115</v>
+        <v>7.557102985669676E-4</v>
       </c>
       <c r="K67" t="n" s="25">
-        <v>0.9579575420306546</v>
+        <v>0.9392168554791205</v>
       </c>
       <c r="L67" t="n" s="25">
-        <v>0.5554405507383151</v>
+        <v>0.220021807983618</v>
       </c>
       <c r="M67" t="n" s="25">
-        <v>5.379564156714728E-12</v>
+        <v>1.2145702051371132E-12</v>
       </c>
       <c r="N67" t="n" s="25">
         <v>0.5</v>
@@ -2897,31 +2897,31 @@
         <v>68.0</v>
       </c>
       <c r="E68" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F68" t="n" s="25">
-        <v>0.7618433263360781</v>
+        <v>0.7385601264156039</v>
       </c>
       <c r="G68" t="n" s="25">
-        <v>0.7660861085912837</v>
+        <v>0.6863160523433215</v>
       </c>
       <c r="H68" t="n" s="25">
-        <v>0.7376421550530808</v>
+        <v>0.7159208149572638</v>
       </c>
       <c r="I68" t="n" s="25">
-        <v>0.867215377379005</v>
+        <v>0.8084809665517685</v>
       </c>
       <c r="J68" t="n" s="25">
-        <v>0.9437468967604798</v>
+        <v>0.7946995437447099</v>
       </c>
       <c r="K68" t="n" s="25">
-        <v>0.8993761550653006</v>
+        <v>0.8731546465174028</v>
       </c>
       <c r="L68" t="n" s="25">
-        <v>0.36248421882322907</v>
+        <v>0.1964485921375544</v>
       </c>
       <c r="M68" t="n" s="25">
-        <v>1.0</v>
+        <v>2.8917027551769208E-6</v>
       </c>
       <c r="N68" t="n" s="25">
         <v>0.5</v>
@@ -2932,31 +2932,31 @@
         <v>69.0</v>
       </c>
       <c r="E69" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F69" t="n" s="25">
-        <v>0.11649642304771271</v>
+        <v>0.10525730007666033</v>
       </c>
       <c r="G69" t="n" s="25">
-        <v>0.0017115764693190758</v>
+        <v>0.0012559731781987028</v>
       </c>
       <c r="H69" t="n" s="25">
-        <v>0.09958546777530575</v>
+        <v>0.09136745389598243</v>
       </c>
       <c r="I69" t="n" s="25">
-        <v>1.7152769463226939E-6</v>
+        <v>1.2451636686938675E-6</v>
       </c>
       <c r="J69" t="n" s="25">
-        <v>2.8041505075676272E-14</v>
+        <v>1.4976504812676358E-14</v>
       </c>
       <c r="K69" t="n" s="25">
-        <v>5.9720205695604596E-5</v>
+        <v>5.4296697165254546E-5</v>
       </c>
       <c r="L69" t="n" s="25">
-        <v>3.282402476635954E-14</v>
+        <v>2.3827792924544537E-14</v>
       </c>
       <c r="M69" t="n" s="25">
-        <v>6.338696783396015E-27</v>
+        <v>3.385393281367431E-27</v>
       </c>
       <c r="N69" t="n" s="25">
         <v>0.5</v>
@@ -2967,31 +2967,31 @@
         <v>70.0</v>
       </c>
       <c r="E70" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F70" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G70" t="n" s="25">
-        <v>0.06697991627536115</v>
+        <v>0.052079272828243935</v>
       </c>
       <c r="H70" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="I70" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.22216373502169742</v>
       </c>
       <c r="J70" t="n" s="25">
-        <v>1.865421747630777E-5</v>
+        <v>7.620452142342778E-6</v>
       </c>
       <c r="K70" t="n" s="25">
-        <v>0.8516409323597693</v>
+        <v>0.8216755766353819</v>
       </c>
       <c r="L70" t="n" s="25">
-        <v>7.093136895494858E-4</v>
+        <v>3.0094503055635573E-4</v>
       </c>
       <c r="M70" t="n" s="25">
-        <v>4.4106759495324635E-15</v>
+        <v>1.138518340251396E-15</v>
       </c>
       <c r="N70" t="n" s="25">
         <v>0.5</v>
@@ -3002,31 +3002,31 @@
         <v>71.0</v>
       </c>
       <c r="E71" t="n" s="25">
-        <v>0.06812213291002646</v>
+        <v>0.06717078980127085</v>
       </c>
       <c r="F71" t="n" s="25">
-        <v>0.008731628464025731</v>
+        <v>0.008036577429870495</v>
       </c>
       <c r="G71" t="n" s="25">
-        <v>0.0010942698269273976</v>
+        <v>9.270546402185963E-4</v>
       </c>
       <c r="H71" t="n" s="25">
-        <v>0.008731628464025731</v>
+        <v>0.008036577429870495</v>
       </c>
       <c r="I71" t="n" s="25">
-        <v>5.504864655709427E-5</v>
+        <v>3.875711332154054E-5</v>
       </c>
       <c r="J71" t="n" s="25">
-        <v>3.396703093184386E-10</v>
+        <v>1.973937846092804E-10</v>
       </c>
       <c r="K71" t="n" s="25">
-        <v>2.8772039707724054E-4</v>
+        <v>2.2358951524678765E-4</v>
       </c>
       <c r="L71" t="n" s="25">
-        <v>3.446880635317074E-9</v>
+        <v>1.3214464738811761E-9</v>
       </c>
       <c r="M71" t="n" s="25">
-        <v>2.0097641141406763E-20</v>
+        <v>6.359846068754477E-21</v>
       </c>
       <c r="N71" t="n" s="25">
         <v>0.5</v>
@@ -3037,31 +3037,31 @@
         <v>72.0</v>
       </c>
       <c r="E72" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F72" t="n" s="25">
-        <v>0.4897112955352949</v>
+        <v>0.4587254838796097</v>
       </c>
       <c r="G72" t="n" s="25">
-        <v>0.02104047908390921</v>
+        <v>0.014154998161476978</v>
       </c>
       <c r="H72" t="n" s="25">
-        <v>0.3901434052392967</v>
+        <v>0.37139414995226255</v>
       </c>
       <c r="I72" t="n" s="25">
-        <v>0.008540534720635614</v>
+        <v>0.006052856558265907</v>
       </c>
       <c r="J72" t="n" s="25">
-        <v>1.568068136993162E-4</v>
+        <v>3.957566002195403E-5</v>
       </c>
       <c r="K72" t="n" s="25">
-        <v>0.2322778280452015</v>
+        <v>0.20707003437180124</v>
       </c>
       <c r="L72" t="n" s="25">
-        <v>4.157715165575326E-5</v>
+        <v>2.3139662666480093E-5</v>
       </c>
       <c r="M72" t="n" s="25">
-        <v>1.0730471235055361E-13</v>
+        <v>2.1317604607561888E-14</v>
       </c>
       <c r="N72" t="n" s="25">
         <v>0.5</v>
@@ -3072,31 +3072,31 @@
         <v>73.0</v>
       </c>
       <c r="E73" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F73" t="n" s="25">
-        <v>0.4897112955352949</v>
+        <v>0.4587254838796097</v>
       </c>
       <c r="G73" t="n" s="25">
-        <v>0.020422023940954038</v>
+        <v>0.017392640185162487</v>
       </c>
       <c r="H73" t="n" s="25">
-        <v>0.445970566896683</v>
+        <v>0.4200915219764364</v>
       </c>
       <c r="I73" t="n" s="25">
-        <v>0.009963868322645527</v>
+        <v>0.006534293546670259</v>
       </c>
       <c r="J73" t="n" s="25">
-        <v>2.4098602418717395E-11</v>
+        <v>1.514172285330426E-11</v>
       </c>
       <c r="K73" t="n" s="25">
-        <v>0.023579336272429526</v>
+        <v>0.021270053891905262</v>
       </c>
       <c r="L73" t="n" s="25">
-        <v>1.9259001671935177E-10</v>
+        <v>1.2586430921015872E-10</v>
       </c>
       <c r="M73" t="n" s="25">
-        <v>6.53689878174371E-25</v>
+        <v>4.107288379325319E-25</v>
       </c>
       <c r="N73" t="n" s="25">
         <v>0.5</v>
@@ -3107,31 +3107,31 @@
         <v>74.0</v>
       </c>
       <c r="E74" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F74" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G74" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H74" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="I74" t="n" s="25">
-        <v>0.972241196527547</v>
+        <v>0.9591963679410247</v>
       </c>
       <c r="J74" t="n" s="25">
-        <v>0.9999673447003828</v>
+        <v>0.9997281004082165</v>
       </c>
       <c r="K74" t="n" s="25">
-        <v>0.7880370721946085</v>
+        <v>0.7604100612629134</v>
       </c>
       <c r="L74" t="n" s="25">
-        <v>0.9925102964312498</v>
+        <v>0.9859191716282969</v>
       </c>
       <c r="M74" t="n" s="25">
-        <v>1.0</v>
+        <v>0.024236252950678126</v>
       </c>
       <c r="N74" t="n" s="25">
         <v>0.5</v>
@@ -3142,31 +3142,31 @@
         <v>75.0</v>
       </c>
       <c r="E75" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F75" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G75" t="n" s="25">
-        <v>0.9061898937440215</v>
+        <v>0.8706269968913084</v>
       </c>
       <c r="H75" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.7316044330870541</v>
       </c>
       <c r="I75" t="n" s="25">
-        <v>0.9764893150342865</v>
+        <v>0.9613872289691694</v>
       </c>
       <c r="J75" t="n" s="25">
-        <v>0.9888830600469214</v>
+        <v>0.9582513140996121</v>
       </c>
       <c r="K75" t="n" s="25">
-        <v>0.9389893343444585</v>
+        <v>0.9167734363556469</v>
       </c>
       <c r="L75" t="n" s="25">
-        <v>0.9887367455662455</v>
+        <v>0.9601562509205863</v>
       </c>
       <c r="M75" t="n" s="25">
-        <v>1.0</v>
+        <v>1.2909273683807054E-4</v>
       </c>
       <c r="N75" t="n" s="25">
         <v>0.5</v>
@@ -3177,31 +3177,31 @@
         <v>76.0</v>
       </c>
       <c r="E76" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F76" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G76" t="n" s="25">
-        <v>0.16242407542590961</v>
+        <v>0.13512277275622142</v>
       </c>
       <c r="H76" t="n" s="25">
-        <v>0.7202792732449277</v>
+        <v>0.6996969133754081</v>
       </c>
       <c r="I76" t="n" s="25">
-        <v>0.6620819930112958</v>
+        <v>0.5587762818982293</v>
       </c>
       <c r="J76" t="n" s="25">
-        <v>1.0025067479395184E-5</v>
+        <v>4.755741022268859E-6</v>
       </c>
       <c r="K76" t="n" s="25">
-        <v>0.8468240708751649</v>
+        <v>0.8191662308162033</v>
       </c>
       <c r="L76" t="n" s="25">
-        <v>2.9477331710697915E-4</v>
+        <v>1.3253779160433683E-4</v>
       </c>
       <c r="M76" t="n" s="25">
-        <v>1.0</v>
+        <v>4.068987528610454E-15</v>
       </c>
       <c r="N76" t="n" s="25">
         <v>0.5</v>
@@ -3212,31 +3212,31 @@
         <v>77.0</v>
       </c>
       <c r="E77" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F77" t="n" s="25">
-        <v>0.4897112955352949</v>
+        <v>0.4587254838796097</v>
       </c>
       <c r="G77" t="n" s="25">
-        <v>0.0019943761498899468</v>
+        <v>0.0016735904128896372</v>
       </c>
       <c r="H77" t="n" s="25">
-        <v>0.398599682256439</v>
+        <v>0.37870766441751985</v>
       </c>
       <c r="I77" t="n" s="25">
-        <v>0.0010825650470115647</v>
+        <v>7.75037816327783E-4</v>
       </c>
       <c r="J77" t="n" s="25">
-        <v>2.487445900266526E-13</v>
+        <v>1.6911427591399499E-13</v>
       </c>
       <c r="K77" t="n" s="25">
-        <v>0.04735498024061399</v>
+        <v>0.0437175242060336</v>
       </c>
       <c r="L77" t="n" s="25">
-        <v>2.073868635741692E-11</v>
+        <v>1.4842821160182537E-11</v>
       </c>
       <c r="M77" t="n" s="25">
-        <v>2.698941920729574E-27</v>
+        <v>1.8349328064146674E-27</v>
       </c>
       <c r="N77" t="n" s="25">
         <v>0.5</v>
@@ -3247,31 +3247,31 @@
         <v>78.0</v>
       </c>
       <c r="E78" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F78" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G78" t="n" s="25">
-        <v>0.9591584426502122</v>
+        <v>0.9290187966904937</v>
       </c>
       <c r="H78" t="n" s="25">
-        <v>0.6553976139121288</v>
+        <v>0.6401785876614176</v>
       </c>
       <c r="I78" t="n" s="25">
-        <v>0.83353037944099</v>
+        <v>0.7862638825991429</v>
       </c>
       <c r="J78" t="n" s="25">
-        <v>0.007721045109984598</v>
+        <v>0.002584760891608156</v>
       </c>
       <c r="K78" t="n" s="25">
-        <v>0.6553976139121289</v>
+        <v>0.6401785876614179</v>
       </c>
       <c r="L78" t="n" s="25">
-        <v>0.018430568692753942</v>
+        <v>0.013607286650882679</v>
       </c>
       <c r="M78" t="n" s="25">
-        <v>4.136153468773427E-12</v>
+        <v>1.3775225278007352E-12</v>
       </c>
       <c r="N78" t="n" s="25">
         <v>0.5</v>
@@ -3282,31 +3282,31 @@
         <v>79.0</v>
       </c>
       <c r="E79" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F79" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G79" t="n" s="25">
-        <v>0.6796818533407643</v>
+        <v>0.5811776294829107</v>
       </c>
       <c r="H79" t="n" s="25">
-        <v>0.7455295518226628</v>
+        <v>0.7231291424266525</v>
       </c>
       <c r="I79" t="n" s="25">
-        <v>0.6112935927504931</v>
+        <v>0.49761042876840417</v>
       </c>
       <c r="J79" t="n" s="25">
-        <v>0.021981056257083357</v>
+        <v>0.005669537413590549</v>
       </c>
       <c r="K79" t="n" s="25">
-        <v>0.4677790278214197</v>
+        <v>0.4393165758535491</v>
       </c>
       <c r="L79" t="n" s="25">
-        <v>5.34724599176192E-4</v>
+        <v>3.368502317118387E-4</v>
       </c>
       <c r="M79" t="n" s="25">
-        <v>3.6127458676636305E-12</v>
+        <v>9.165433334985174E-13</v>
       </c>
       <c r="N79" t="n" s="25">
         <v>0.5</v>
@@ -3317,31 +3317,31 @@
         <v>80.0</v>
       </c>
       <c r="E80" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F80" t="n" s="25">
-        <v>0.5800902404379042</v>
+        <v>0.5508907634782401</v>
       </c>
       <c r="G80" t="n" s="25">
-        <v>0.051250628862805354</v>
+        <v>0.044081570258583114</v>
       </c>
       <c r="H80" t="n" s="25">
-        <v>0.536768411823008</v>
+        <v>0.511834616901498</v>
       </c>
       <c r="I80" t="n" s="25">
-        <v>0.25855510168895124</v>
+        <v>0.18618384382803133</v>
       </c>
       <c r="J80" t="n" s="25">
-        <v>8.767553265867993E-8</v>
+        <v>4.956509500620741E-8</v>
       </c>
       <c r="K80" t="n" s="25">
-        <v>0.4408644095589335</v>
+        <v>0.40279221704598317</v>
       </c>
       <c r="L80" t="n" s="25">
-        <v>1.1604194738998666E-6</v>
+        <v>6.216776300288281E-7</v>
       </c>
       <c r="M80" t="n" s="25">
-        <v>4.1356407015260195E-20</v>
+        <v>1.9091887101768093E-20</v>
       </c>
       <c r="N80" t="n" s="25">
         <v>0.5</v>
@@ -3352,31 +3352,31 @@
         <v>81.0</v>
       </c>
       <c r="E81" t="n" s="25">
-        <v>0.06812213291002646</v>
+        <v>0.06717078980127085</v>
       </c>
       <c r="F81" t="n" s="25">
-        <v>0.0080027465892648</v>
+        <v>0.007434626941461539</v>
       </c>
       <c r="G81" t="n" s="25">
-        <v>0.001233499337011663</v>
+        <v>8.564816239063493E-4</v>
       </c>
       <c r="H81" t="n" s="25">
-        <v>0.008002746589264795</v>
+        <v>0.007434626941461539</v>
       </c>
       <c r="I81" t="n" s="25">
-        <v>6.922059110273342E-5</v>
+        <v>5.149328065867428E-5</v>
       </c>
       <c r="J81" t="n" s="25">
-        <v>5.309343558360048E-6</v>
+        <v>1.3742308702329036E-6</v>
       </c>
       <c r="K81" t="n" s="25">
-        <v>0.001160748034509896</v>
+        <v>9.63347281082213E-4</v>
       </c>
       <c r="L81" t="n" s="25">
-        <v>2.6008781548457643E-8</v>
+        <v>1.493584954166537E-8</v>
       </c>
       <c r="M81" t="n" s="25">
-        <v>1.0</v>
+        <v>1.3748077790899953E-15</v>
       </c>
       <c r="N81" t="n" s="25">
         <v>0.5</v>
@@ -3387,31 +3387,31 @@
         <v>82.0</v>
       </c>
       <c r="E82" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F82" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G82" t="n" s="25">
-        <v>0.04623873123358959</v>
+        <v>0.03759015796887993</v>
       </c>
       <c r="H82" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="I82" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.22216373502169742</v>
       </c>
       <c r="J82" t="n" s="25">
-        <v>1.9596711393156962E-7</v>
+        <v>9.653139824453903E-8</v>
       </c>
       <c r="K82" t="n" s="25">
-        <v>0.7022311691808127</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="L82" t="n" s="25">
-        <v>1.8096437678554385E-6</v>
+        <v>1.2145874115590468E-6</v>
       </c>
       <c r="M82" t="n" s="25">
-        <v>1.1812740719423656E-19</v>
+        <v>5.818834816119994E-20</v>
       </c>
       <c r="N82" t="n" s="25">
         <v>0.5</v>
@@ -3422,31 +3422,31 @@
         <v>83.0</v>
       </c>
       <c r="E83" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F83" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G83" t="n" s="25">
-        <v>0.033017563155576135</v>
+        <v>0.02791617358898927</v>
       </c>
       <c r="H83" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="I83" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.22216373502169742</v>
       </c>
       <c r="J83" t="n" s="25">
-        <v>9.629334676929182E-9</v>
+        <v>5.569135280265005E-9</v>
       </c>
       <c r="K83" t="n" s="25">
-        <v>0.7022311691808127</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="L83" t="n" s="25">
-        <v>2.7144698271730495E-7</v>
+        <v>1.8218829982493006E-7</v>
       </c>
       <c r="M83" t="n" s="25">
-        <v>8.706727141202958E-22</v>
+        <v>5.035544274623008E-22</v>
       </c>
       <c r="N83" t="n" s="25">
         <v>0.5</v>
@@ -3457,31 +3457,31 @@
         <v>84.0</v>
       </c>
       <c r="E84" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F84" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G84" t="n" s="25">
-        <v>0.988797544895626</v>
+        <v>0.9804479805732518</v>
       </c>
       <c r="H84" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="I84" t="n" s="25">
-        <v>0.992936562550551</v>
+        <v>0.9876280663827864</v>
       </c>
       <c r="J84" t="n" s="25">
-        <v>0.9999106441808757</v>
+        <v>0.9992671381622388</v>
       </c>
       <c r="K84" t="n" s="25">
-        <v>0.8907693199410025</v>
+        <v>0.8637848419524465</v>
       </c>
       <c r="L84" t="n" s="25">
-        <v>0.899806262009687</v>
+        <v>0.7697279769753026</v>
       </c>
       <c r="M84" t="n" s="25">
-        <v>1.0</v>
+        <v>0.0038395140623821004</v>
       </c>
       <c r="N84" t="n" s="25">
         <v>0.5</v>
@@ -3492,31 +3492,31 @@
         <v>85.0</v>
       </c>
       <c r="E85" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F85" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G85" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H85" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="I85" t="n" s="25">
-        <v>0.972241196527547</v>
+        <v>0.9591963679410247</v>
       </c>
       <c r="J85" t="n" s="25">
-        <v>0.9999673447003828</v>
+        <v>0.9997281004082165</v>
       </c>
       <c r="K85" t="n" s="25">
-        <v>0.8516409323597693</v>
+        <v>0.8216755766353819</v>
       </c>
       <c r="L85" t="n" s="25">
-        <v>0.9979245906049349</v>
+        <v>0.9951201085298701</v>
       </c>
       <c r="M85" t="n" s="25">
-        <v>1.0</v>
+        <v>0.5860549010541988</v>
       </c>
       <c r="N85" t="n" s="25">
         <v>0.5</v>
@@ -3527,31 +3527,31 @@
         <v>86.0</v>
       </c>
       <c r="E86" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F86" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G86" t="n" s="25">
-        <v>0.9568082994815916</v>
+        <v>0.9325324939939477</v>
       </c>
       <c r="H86" t="n" s="25">
-        <v>0.7376421550530808</v>
+        <v>0.7159208149572638</v>
       </c>
       <c r="I86" t="n" s="25">
-        <v>0.967814371491711</v>
+        <v>0.9492840913128473</v>
       </c>
       <c r="J86" t="n" s="25">
-        <v>0.9913223477779352</v>
+        <v>0.9601405573287722</v>
       </c>
       <c r="K86" t="n" s="25">
-        <v>0.8095768297436962</v>
+        <v>0.7827275653816527</v>
       </c>
       <c r="L86" t="n" s="25">
-        <v>0.6640398203089211</v>
+        <v>0.5011724631182407</v>
       </c>
       <c r="M86" t="n" s="25">
-        <v>1.0644162772859196E-6</v>
+        <v>1.8327843610207258E-7</v>
       </c>
       <c r="N86" t="n" s="25">
         <v>0.5</v>
@@ -3562,31 +3562,31 @@
         <v>87.0</v>
       </c>
       <c r="E87" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F87" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G87" t="n" s="25">
-        <v>0.9867842629303349</v>
+        <v>0.9728451639664663</v>
       </c>
       <c r="H87" t="n" s="25">
-        <v>0.6807592811971381</v>
+        <v>0.6632323759973657</v>
       </c>
       <c r="I87" t="n" s="25">
-        <v>0.880562607427304</v>
+        <v>0.8377428633678158</v>
       </c>
       <c r="J87" t="n" s="25">
-        <v>0.9948910925968469</v>
+        <v>0.9678639985604922</v>
       </c>
       <c r="K87" t="n" s="25">
-        <v>0.7707324944941936</v>
+        <v>0.7436959359094375</v>
       </c>
       <c r="L87" t="n" s="25">
-        <v>0.8932572790390522</v>
+        <v>0.8218587162359616</v>
       </c>
       <c r="M87" t="n" s="25">
-        <v>1.0</v>
+        <v>6.103299741910508E-5</v>
       </c>
       <c r="N87" t="n" s="25">
         <v>0.5</v>
@@ -3597,31 +3597,31 @@
         <v>88.0</v>
       </c>
       <c r="E88" t="n" s="25">
-        <v>0.020986824288604895</v>
+        <v>0.02072619126509619</v>
       </c>
       <c r="F88" t="n" s="25">
-        <v>7.092032010166336E-4</v>
+        <v>6.600420628264955E-4</v>
       </c>
       <c r="G88" t="n" s="25">
-        <v>1.0171413749365314E-4</v>
+        <v>7.160990945935839E-5</v>
       </c>
       <c r="H88" t="n" s="25">
-        <v>7.092032010166336E-4</v>
+        <v>6.600420628264955E-4</v>
       </c>
       <c r="I88" t="n" s="25">
-        <v>2.3111735539810756E-6</v>
+        <v>1.6752966706388658E-6</v>
       </c>
       <c r="J88" t="n" s="25">
-        <v>7.480557064348495E-8</v>
+        <v>1.9356114389944787E-8</v>
       </c>
       <c r="K88" t="n" s="25">
-        <v>1.34132734449585E-5</v>
+        <v>1.2482878490939919E-5</v>
       </c>
       <c r="L88" t="n" s="25">
-        <v>7.430185918855345E-11</v>
+        <v>5.385903536166372E-11</v>
       </c>
       <c r="M88" t="n" s="25">
-        <v>3.4089698332704586E-19</v>
+        <v>8.820787786023129E-20</v>
       </c>
       <c r="N88" t="n" s="25">
         <v>0.5</v>
@@ -3632,31 +3632,31 @@
         <v>89.0</v>
       </c>
       <c r="E89" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F89" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G89" t="n" s="25">
-        <v>0.8493397744982133</v>
+        <v>0.7771179337040072</v>
       </c>
       <c r="H89" t="n" s="25">
-        <v>0.7376421550530808</v>
+        <v>0.7159208149572638</v>
       </c>
       <c r="I89" t="n" s="25">
-        <v>0.7331684332346636</v>
+        <v>0.6391828618740563</v>
       </c>
       <c r="J89" t="n" s="25">
-        <v>0.9175401067994359</v>
+        <v>0.7053018841300785</v>
       </c>
       <c r="K89" t="n" s="25">
-        <v>0.7200048326966474</v>
+        <v>0.6731920728738326</v>
       </c>
       <c r="L89" t="n" s="25">
-        <v>0.38580263437320134</v>
+        <v>0.21263002429991693</v>
       </c>
       <c r="M89" t="n" s="25">
-        <v>9.014375840417844E-7</v>
+        <v>1.2929105498388163E-7</v>
       </c>
       <c r="N89" t="n" s="25">
         <v>0.5</v>
@@ -3667,31 +3667,31 @@
         <v>90.0</v>
       </c>
       <c r="E90" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F90" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G90" t="n" s="25">
-        <v>0.9554888758789571</v>
+        <v>0.937322307911729</v>
       </c>
       <c r="H90" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="I90" t="n" s="25">
-        <v>0.992936562550551</v>
+        <v>0.9876280663827864</v>
       </c>
       <c r="J90" t="n" s="25">
-        <v>0.9836636968267503</v>
+        <v>0.9363795347151131</v>
       </c>
       <c r="K90" t="n" s="25">
-        <v>0.8845040153276452</v>
+        <v>0.8580080587791137</v>
       </c>
       <c r="L90" t="n" s="25">
-        <v>0.6885433062987472</v>
+        <v>0.4629771085312221</v>
       </c>
       <c r="M90" t="n" s="25">
-        <v>1.0</v>
+        <v>9.237883328878212E-7</v>
       </c>
       <c r="N90" t="n" s="25">
         <v>0.5</v>
@@ -3702,31 +3702,31 @@
         <v>91.0</v>
       </c>
       <c r="E91" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F91" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G91" t="n" s="25">
-        <v>0.05008052959722529</v>
+        <v>0.04002420616645762</v>
       </c>
       <c r="H91" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="I91" t="n" s="25">
-        <v>0.10360227972619643</v>
+        <v>0.07411820676274807</v>
       </c>
       <c r="J91" t="n" s="25">
-        <v>4.038043466700058E-9</v>
+        <v>2.266117471561289E-9</v>
       </c>
       <c r="K91" t="n" s="25">
-        <v>0.4521774018300542</v>
+        <v>0.42985845907040393</v>
       </c>
       <c r="L91" t="n" s="25">
-        <v>7.372318984495232E-8</v>
+        <v>5.1062834445991486E-8</v>
       </c>
       <c r="M91" t="n" s="25">
-        <v>1.0431856296225538E-21</v>
+        <v>5.854273726063701E-22</v>
       </c>
       <c r="N91" t="n" s="25">
         <v>0.5</v>
@@ -3737,31 +3737,31 @@
         <v>92.0</v>
       </c>
       <c r="E92" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F92" t="n" s="25">
-        <v>0.4897112955352949</v>
+        <v>0.4587254838796097</v>
       </c>
       <c r="G92" t="n" s="25">
-        <v>0.9300054074915157</v>
+        <v>0.8725196856291417</v>
       </c>
       <c r="H92" t="n" s="25">
-        <v>0.4143460471483453</v>
+        <v>0.3925563457583449</v>
       </c>
       <c r="I92" t="n" s="25">
-        <v>0.46411937185903757</v>
+        <v>0.36980458539105676</v>
       </c>
       <c r="J92" t="n" s="25">
-        <v>0.9367732376144904</v>
+        <v>0.7021837334958678</v>
       </c>
       <c r="K92" t="n" s="25">
-        <v>0.2507132563409731</v>
+        <v>0.22217838084901226</v>
       </c>
       <c r="L92" t="n" s="25">
-        <v>0.09356354529664151</v>
+        <v>0.05218384976784726</v>
       </c>
       <c r="M92" t="n" s="25">
-        <v>1.0</v>
+        <v>5.017185282378565E-7</v>
       </c>
       <c r="N92" t="n" s="25">
         <v>0.5</v>
@@ -3772,31 +3772,31 @@
         <v>93.0</v>
       </c>
       <c r="E93" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F93" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G93" t="n" s="25">
-        <v>0.7274885272746869</v>
+        <v>0.6697264283126352</v>
       </c>
       <c r="H93" t="n" s="25">
-        <v>0.7618433263360782</v>
+        <v>0.738560126415604</v>
       </c>
       <c r="I93" t="n" s="25">
-        <v>0.878650711428947</v>
+        <v>0.8145333317915393</v>
       </c>
       <c r="J93" t="n" s="25">
-        <v>1.2174680578467077E-4</v>
+        <v>5.143345504000779E-5</v>
       </c>
       <c r="K93" t="n" s="25">
-        <v>0.489711295535295</v>
+        <v>0.45872548387960993</v>
       </c>
       <c r="L93" t="n" s="25">
-        <v>3.079002067998936E-5</v>
+        <v>1.8675799471742503E-5</v>
       </c>
       <c r="M93" t="n" s="25">
-        <v>2.446564039163664E-16</v>
+        <v>1.033508783637373E-16</v>
       </c>
       <c r="N93" t="n" s="25">
         <v>0.5</v>
@@ -3807,31 +3807,31 @@
         <v>94.0</v>
       </c>
       <c r="E94" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F94" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G94" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H94" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="I94" t="n" s="25">
-        <v>0.972241196527547</v>
+        <v>0.9591963679410247</v>
       </c>
       <c r="J94" t="n" s="25">
-        <v>0.9999673447003828</v>
+        <v>0.9997281004082165</v>
       </c>
       <c r="K94" t="n" s="25">
-        <v>0.7880370721946085</v>
+        <v>0.7604100612629134</v>
       </c>
       <c r="L94" t="n" s="25">
-        <v>0.9925102964312498</v>
+        <v>0.9859191716282969</v>
       </c>
       <c r="M94" t="n" s="25">
-        <v>1.0</v>
+        <v>0.024236252950678126</v>
       </c>
       <c r="N94" t="n" s="25">
         <v>0.5</v>
@@ -3842,31 +3842,31 @@
         <v>95.0</v>
       </c>
       <c r="E95" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F95" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G95" t="n" s="25">
-        <v>0.7750293465865653</v>
+        <v>0.7303074026251211</v>
       </c>
       <c r="H95" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.7316044330870541</v>
       </c>
       <c r="I95" t="n" s="25">
-        <v>0.9267441338152166</v>
+        <v>0.8870662016306352</v>
       </c>
       <c r="J95" t="n" s="25">
-        <v>1.8567914185259972E-4</v>
+        <v>9.285233198992692E-5</v>
       </c>
       <c r="K95" t="n" s="25">
-        <v>0.7373785384454257</v>
+        <v>0.6902139251403859</v>
       </c>
       <c r="L95" t="n" s="25">
-        <v>0.0010833496452040824</v>
+        <v>4.4882410505793014E-4</v>
       </c>
       <c r="M95" t="n" s="25">
-        <v>5.641944359631656E-15</v>
+        <v>1.8812012600367468E-15</v>
       </c>
       <c r="N95" t="n" s="25">
         <v>0.5</v>
@@ -3877,31 +3877,31 @@
         <v>96.0</v>
       </c>
       <c r="E96" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F96" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G96" t="n" s="25">
-        <v>0.9924030312578133</v>
+        <v>0.9859496457848731</v>
       </c>
       <c r="H96" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.7316044330870541</v>
       </c>
       <c r="I96" t="n" s="25">
-        <v>0.43020380780424505</v>
+        <v>0.3290965277360483</v>
       </c>
       <c r="J96" t="n" s="25">
-        <v>0.4657628394099475</v>
+        <v>0.15462529187996316</v>
       </c>
       <c r="K96" t="n" s="25">
-        <v>0.14517278733836514</v>
+        <v>0.11300171120832088</v>
       </c>
       <c r="L96" t="n" s="25">
-        <v>0.04257276389252209</v>
+        <v>0.01548750585191274</v>
       </c>
       <c r="M96" t="n" s="25">
-        <v>1.0</v>
+        <v>3.076955428872459E-5</v>
       </c>
       <c r="N96" t="n" s="25">
         <v>0.5</v>
@@ -3912,31 +3912,31 @@
         <v>97.0</v>
       </c>
       <c r="E97" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F97" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G97" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H97" t="n" s="25">
-        <v>0.6553976139121288</v>
+        <v>0.6401785876614176</v>
       </c>
       <c r="I97" t="n" s="25">
-        <v>0.9434719745714708</v>
+        <v>0.9245978509765802</v>
       </c>
       <c r="J97" t="n" s="25">
-        <v>0.9972468511926885</v>
+        <v>0.9851211405752591</v>
       </c>
       <c r="K97" t="n" s="25">
-        <v>0.7338831660182108</v>
+        <v>0.7110947045956963</v>
       </c>
       <c r="L97" t="n" s="25">
-        <v>0.98156416456483</v>
+        <v>0.9704973931204313</v>
       </c>
       <c r="M97" t="n" s="25">
-        <v>1.0</v>
+        <v>0.0010312018212068905</v>
       </c>
       <c r="N97" t="n" s="25">
         <v>0.5</v>
@@ -3947,31 +3947,31 @@
         <v>98.0</v>
       </c>
       <c r="E98" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F98" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G98" t="n" s="25">
-        <v>0.9623129932382705</v>
+        <v>0.9450390982885042</v>
       </c>
       <c r="H98" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="I98" t="n" s="25">
-        <v>0.6822577181284157</v>
+        <v>0.5710699208322487</v>
       </c>
       <c r="J98" t="n" s="25">
-        <v>9.153202507436603E-4</v>
+        <v>3.528894850499252E-4</v>
       </c>
       <c r="K98" t="n" s="25">
-        <v>0.14263925717647358</v>
+        <v>0.12094709347737094</v>
       </c>
       <c r="L98" t="n" s="25">
-        <v>1.0584369358246136E-4</v>
+        <v>5.359515843094747E-5</v>
       </c>
       <c r="M98" t="n" s="25">
-        <v>2.0324543250966352E-13</v>
+        <v>6.395147555543234E-14</v>
       </c>
       <c r="N98" t="n" s="25">
         <v>0.5</v>
@@ -3982,31 +3982,31 @@
         <v>99.0</v>
       </c>
       <c r="E99" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F99" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G99" t="n" s="25">
-        <v>0.995475202538679</v>
+        <v>0.9909399731266233</v>
       </c>
       <c r="H99" t="n" s="25">
-        <v>0.6939507756414549</v>
+        <v>0.6754769416418169</v>
       </c>
       <c r="I99" t="n" s="25">
-        <v>0.8391859958005626</v>
+        <v>0.7843544130433517</v>
       </c>
       <c r="J99" t="n" s="25">
-        <v>0.6905210224529164</v>
+        <v>0.3168132424941252</v>
       </c>
       <c r="K99" t="n" s="25">
-        <v>0.509060019912346</v>
+        <v>0.4596521153420898</v>
       </c>
       <c r="L99" t="n" s="25">
-        <v>0.32129579858297874</v>
+        <v>0.18034703855917797</v>
       </c>
       <c r="M99" t="n" s="25">
-        <v>1.0</v>
+        <v>1.1772326276843388E-5</v>
       </c>
       <c r="N99" t="n" s="25">
         <v>0.5</v>
@@ -4017,31 +4017,31 @@
         <v>100.0</v>
       </c>
       <c r="E100" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F100" t="n" s="25">
-        <v>0.3042035450881553</v>
+        <v>0.28186832210072327</v>
       </c>
       <c r="G100" t="n" s="25">
-        <v>0.009181632844348343</v>
+        <v>0.007484662547733188</v>
       </c>
       <c r="H100" t="n" s="25">
-        <v>0.2683197248302214</v>
+        <v>0.25121626733907304</v>
       </c>
       <c r="I100" t="n" s="25">
-        <v>0.0022445372287307904</v>
+        <v>0.0015989825460308573</v>
       </c>
       <c r="J100" t="n" s="25">
-        <v>2.1957806136288195E-10</v>
+        <v>1.278276211649551E-10</v>
       </c>
       <c r="K100" t="n" s="25">
-        <v>0.026589785698522096</v>
+        <v>0.022822907906642754</v>
       </c>
       <c r="L100" t="n" s="25">
-        <v>2.137745301039529E-9</v>
+        <v>1.1981170809001934E-9</v>
       </c>
       <c r="M100" t="n" s="25">
-        <v>9.859253240384029E-23</v>
+        <v>4.5184249359688344E-23</v>
       </c>
       <c r="N100" t="n" s="25">
         <v>0.5</v>
@@ -4052,31 +4052,31 @@
         <v>101.0</v>
       </c>
       <c r="E101" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F101" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G101" t="n" s="25">
-        <v>0.9346575308485182</v>
+        <v>0.9044526655510962</v>
       </c>
       <c r="H101" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.7316044330870541</v>
       </c>
       <c r="I101" t="n" s="25">
-        <v>0.9764893150342865</v>
+        <v>0.9613872289691694</v>
       </c>
       <c r="J101" t="n" s="25">
-        <v>0.9991571617489646</v>
+        <v>0.9960734484475715</v>
       </c>
       <c r="K101" t="n" s="25">
-        <v>0.9138984359801404</v>
+        <v>0.888422347765727</v>
       </c>
       <c r="L101" t="n" s="25">
-        <v>0.9909970205122328</v>
+        <v>0.9729229368140074</v>
       </c>
       <c r="M101" t="n" s="25">
-        <v>4.451466843864698E-4</v>
+        <v>5.189076766691937E-5</v>
       </c>
       <c r="N101" t="n" s="25">
         <v>0.5</v>
@@ -4087,31 +4087,31 @@
         <v>102.0</v>
       </c>
       <c r="E102" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F102" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G102" t="n" s="25">
-        <v>0.04623873123358959</v>
+        <v>0.03759015796887993</v>
       </c>
       <c r="H102" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="I102" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.22216373502169742</v>
       </c>
       <c r="J102" t="n" s="25">
-        <v>4.899176408173047E-7</v>
+        <v>2.4132846066768693E-7</v>
       </c>
       <c r="K102" t="n" s="25">
-        <v>0.7880370721946085</v>
+        <v>0.7604100612629134</v>
       </c>
       <c r="L102" t="n" s="25">
-        <v>1.7116839035962012E-5</v>
+        <v>9.044192298347927E-6</v>
       </c>
       <c r="M102" t="n" s="25">
-        <v>2.7933657465931215E-18</v>
+        <v>1.0832294279142914E-18</v>
       </c>
       <c r="N102" t="n" s="25">
         <v>0.5</v>
@@ -4122,31 +4122,31 @@
         <v>103.0</v>
       </c>
       <c r="E103" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F103" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G103" t="n" s="25">
-        <v>0.12016735311060144</v>
+        <v>0.10303561408963409</v>
       </c>
       <c r="H103" t="n" s="25">
-        <v>0.7202792732449277</v>
+        <v>0.6996969133754082</v>
       </c>
       <c r="I103" t="n" s="25">
-        <v>0.6620819930112958</v>
+        <v>0.5587762818982293</v>
       </c>
       <c r="J103" t="n" s="25">
-        <v>1.4778346759833848E-7</v>
+        <v>8.231151820484928E-8</v>
       </c>
       <c r="K103" t="n" s="25">
-        <v>0.7202792732449277</v>
+        <v>0.6996969133754083</v>
       </c>
       <c r="L103" t="n" s="25">
-        <v>1.249785494532256E-6</v>
+        <v>8.078195216218555E-7</v>
       </c>
       <c r="M103" t="n" s="25">
-        <v>1.3362403003882863E-20</v>
+        <v>7.442507771523767E-21</v>
       </c>
       <c r="N103" t="n" s="25">
         <v>0.5</v>
@@ -4157,31 +4157,31 @@
         <v>104.0</v>
       </c>
       <c r="E104" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F104" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G104" t="n" s="25">
-        <v>0.04623873123358959</v>
+        <v>0.03759015796887993</v>
       </c>
       <c r="H104" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="I104" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.22216373502169742</v>
       </c>
       <c r="J104" t="n" s="25">
-        <v>1.9596711393156962E-7</v>
+        <v>9.653139824453903E-8</v>
       </c>
       <c r="K104" t="n" s="25">
-        <v>0.7022311691808127</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="L104" t="n" s="25">
-        <v>1.8096437678554385E-6</v>
+        <v>1.2145874115590468E-6</v>
       </c>
       <c r="M104" t="n" s="25">
-        <v>1.1812740719423656E-19</v>
+        <v>5.818834816119994E-20</v>
       </c>
       <c r="N104" t="n" s="25">
         <v>0.5</v>
@@ -4192,31 +4192,31 @@
         <v>105.0</v>
       </c>
       <c r="E105" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F105" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G105" t="n" s="25">
-        <v>0.871353576898401</v>
+        <v>0.8169449298458371</v>
       </c>
       <c r="H105" t="n" s="25">
-        <v>0.7618433263360782</v>
+        <v>0.738560126415604</v>
       </c>
       <c r="I105" t="n" s="25">
-        <v>0.42574361319690585</v>
+        <v>0.32632894138475166</v>
       </c>
       <c r="J105" t="n" s="25">
-        <v>3.163117589984986E-5</v>
+        <v>1.248575276556929E-5</v>
       </c>
       <c r="K105" t="n" s="25">
-        <v>0.1472971621710134</v>
+        <v>0.1323575141847039</v>
       </c>
       <c r="L105" t="n" s="25">
-        <v>3.1527189750222874E-6</v>
+        <v>2.0599236777464946E-6</v>
       </c>
       <c r="M105" t="n" s="25">
-        <v>1.588968246694551E-16</v>
+        <v>6.272003577639306E-17</v>
       </c>
       <c r="N105" t="n" s="25">
         <v>0.5</v>
@@ -4227,31 +4227,31 @@
         <v>106.0</v>
       </c>
       <c r="E106" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F106" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G106" t="n" s="25">
-        <v>0.033017563155576135</v>
+        <v>0.02791617358898927</v>
       </c>
       <c r="H106" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="I106" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.22216373502169742</v>
       </c>
       <c r="J106" t="n" s="25">
-        <v>2.407333634460763E-8</v>
+        <v>1.3922838084355258E-8</v>
       </c>
       <c r="K106" t="n" s="25">
-        <v>0.7880370721946085</v>
+        <v>0.7604100612629134</v>
       </c>
       <c r="L106" t="n" s="25">
-        <v>2.567563211675575E-6</v>
+        <v>1.3566392740026902E-6</v>
       </c>
       <c r="M106" t="n" s="25">
-        <v>2.0588848886844645E-20</v>
+        <v>9.37412715123976E-21</v>
       </c>
       <c r="N106" t="n" s="25">
         <v>0.5</v>
@@ -4262,31 +4262,31 @@
         <v>107.0</v>
       </c>
       <c r="E107" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F107" t="n" s="25">
-        <v>0.5585407182938172</v>
+        <v>0.5314107932171964</v>
       </c>
       <c r="G107" t="n" s="25">
-        <v>0.441832025442639</v>
+        <v>0.40552319756255906</v>
       </c>
       <c r="H107" t="n" s="25">
-        <v>0.5800902404379042</v>
+        <v>0.5508907634782401</v>
       </c>
       <c r="I107" t="n" s="25">
-        <v>0.842565530058769</v>
+        <v>0.7717592115144218</v>
       </c>
       <c r="J107" t="n" s="25">
-        <v>1.6609284508462872E-4</v>
+        <v>9.043250217583593E-5</v>
       </c>
       <c r="K107" t="n" s="25">
-        <v>0.6824765461919297</v>
+        <v>0.6172072325709482</v>
       </c>
       <c r="L107" t="n" s="25">
-        <v>3.120968414434525E-4</v>
+        <v>1.243273115180084E-4</v>
       </c>
       <c r="M107" t="n" s="25">
-        <v>1.373621899483168E-15</v>
+        <v>4.714317942653043E-16</v>
       </c>
       <c r="N107" t="n" s="25">
         <v>0.5</v>
@@ -4297,31 +4297,31 @@
         <v>108.0</v>
       </c>
       <c r="E108" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F108" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G108" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9952436823794146</v>
       </c>
       <c r="H108" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.7316044330870541</v>
       </c>
       <c r="I108" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.9822472371849684</v>
       </c>
       <c r="J108" t="n" s="25">
-        <v>0.9999999725000644</v>
+        <v>0.999999602152718</v>
       </c>
       <c r="K108" t="n" s="25">
-        <v>0.8753024662366632</v>
+        <v>0.8477949709403928</v>
       </c>
       <c r="L108" t="n" s="25">
-        <v>0.9991050627675975</v>
+        <v>0.9977642301510017</v>
       </c>
       <c r="M108" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9994126605578281</v>
       </c>
       <c r="N108" t="n" s="25">
         <v>0.5</v>
@@ -4332,31 +4332,31 @@
         <v>109.0</v>
       </c>
       <c r="E109" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F109" t="n" s="25">
-        <v>0.554781967832804</v>
+        <v>0.5247487771919432</v>
       </c>
       <c r="G109" t="n" s="25">
-        <v>0.0017024945433056716</v>
+        <v>0.0014507362073913357</v>
       </c>
       <c r="H109" t="n" s="25">
-        <v>0.4320628040756834</v>
+        <v>0.41577270485323314</v>
       </c>
       <c r="I109" t="n" s="25">
-        <v>0.004035012097422186</v>
+        <v>0.0030058328352114594</v>
       </c>
       <c r="J109" t="n" s="25">
-        <v>1.2834398968950513E-11</v>
+        <v>8.230060571765752E-12</v>
       </c>
       <c r="K109" t="n" s="25">
-        <v>0.2333071182681174</v>
+        <v>0.22158697035650868</v>
       </c>
       <c r="L109" t="n" s="25">
-        <v>1.0337043451307976E-9</v>
+        <v>7.692504856826035E-10</v>
       </c>
       <c r="M109" t="n" s="25">
-        <v>4.641882851454618E-25</v>
+        <v>2.976608186075446E-25</v>
       </c>
       <c r="N109" t="n" s="25">
         <v>0.5</v>
@@ -4367,31 +4367,31 @@
         <v>110.0</v>
       </c>
       <c r="E110" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F110" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G110" t="n" s="25">
-        <v>0.29397083363923504</v>
+        <v>0.23314410793053483</v>
       </c>
       <c r="H110" t="n" s="25">
-        <v>0.7202792732449277</v>
+        <v>0.6996969133754082</v>
       </c>
       <c r="I110" t="n" s="25">
-        <v>0.6620819930112958</v>
+        <v>0.5587762818982293</v>
       </c>
       <c r="J110" t="n" s="25">
-        <v>6.388897734357615E-4</v>
+        <v>2.1145986317999677E-4</v>
       </c>
       <c r="K110" t="n" s="25">
-        <v>0.7202792732449277</v>
+        <v>0.6996969133754083</v>
       </c>
       <c r="L110" t="n" s="25">
-        <v>1.6661051051179696E-4</v>
+        <v>1.076977565032458E-4</v>
       </c>
       <c r="M110" t="n" s="25">
-        <v>7.70727538837998E-15</v>
+        <v>2.5498649423621046E-15</v>
       </c>
       <c r="N110" t="n" s="25">
         <v>0.5</v>
@@ -4402,31 +4402,31 @@
         <v>111.0</v>
       </c>
       <c r="E111" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5576432406459443</v>
       </c>
       <c r="F111" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.7534243418060362</v>
       </c>
       <c r="G111" t="n" s="25">
-        <v>0.033017563155576135</v>
+        <v>0.02791617358898927</v>
       </c>
       <c r="H111" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="I111" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.22216373502169742</v>
       </c>
       <c r="J111" t="n" s="25">
-        <v>9.629334676929182E-9</v>
+        <v>5.569135280265005E-9</v>
       </c>
       <c r="K111" t="n" s="25">
-        <v>0.7022311691808127</v>
+        <v>0.6829567786968528</v>
       </c>
       <c r="L111" t="n" s="25">
-        <v>2.7144698271730495E-7</v>
+        <v>1.8218829982493006E-7</v>
       </c>
       <c r="M111" t="n" s="25">
-        <v>8.706727141202958E-22</v>
+        <v>5.035544274623008E-22</v>
       </c>
       <c r="N111" t="n" s="25">
         <v>0.5</v>

--- a/data/new_posteriors/no_elementary_skills/simple_model/leak/unconstrained/results_model1a_leak_unconstrained.xlsx
+++ b/data/new_posteriors/no_elementary_skills/simple_model/leak/unconstrained/results_model1a_leak_unconstrained.xlsx
@@ -628,7 +628,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G3" t="n" s="25">
-        <v>0.9628202489126994</v>
+        <v>0.9675151368666127</v>
       </c>
       <c r="H3" t="n" s="25">
         <v>0.6580465123459209</v>
@@ -637,7 +637,7 @@
         <v>0.83031706557813</v>
       </c>
       <c r="J3" t="n" s="25">
-        <v>0.736042087535206</v>
+        <v>0.7431232205475051</v>
       </c>
       <c r="K3" t="n" s="25">
         <v>0.7333951446272347</v>
@@ -646,11 +646,9 @@
         <v>0.4546946202060924</v>
       </c>
       <c r="M3" t="n" s="25">
-        <v>1.6389517185307685E-6</v>
-      </c>
-      <c r="N3" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>1.7003336680513185E-6</v>
+      </c>
+      <c r="N3" s="25"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -663,7 +661,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G4" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H4" t="n" s="25">
         <v>0.6829567786968528</v>
@@ -672,7 +670,7 @@
         <v>0.9591963679410247</v>
       </c>
       <c r="J4" t="n" s="25">
-        <v>0.9997281004082165</v>
+        <v>0.9997426863292396</v>
       </c>
       <c r="K4" t="n" s="25">
         <v>0.8216755766353819</v>
@@ -681,11 +679,9 @@
         <v>0.9951201085298701</v>
       </c>
       <c r="M4" t="n" s="25">
-        <v>0.5860549010541988</v>
-      </c>
-      <c r="N4" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.5993678182928002</v>
+      </c>
+      <c r="N4" s="25"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -698,7 +694,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G5" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H5" t="n" s="25">
         <v>0.7316044330870541</v>
@@ -707,7 +703,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="J5" t="n" s="25">
-        <v>0.999999602152718</v>
+        <v>0.9999996235005264</v>
       </c>
       <c r="K5" t="n" s="25">
         <v>0.888422347765727</v>
@@ -716,11 +712,9 @@
         <v>0.9992116235241997</v>
       </c>
       <c r="M5" t="n" s="25">
-        <v>0.9999914961412879</v>
-      </c>
-      <c r="N5" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.999991952440383</v>
+      </c>
+      <c r="N5" s="25"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -733,7 +727,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G6" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H6" t="n" s="25">
         <v>0.7316044330870541</v>
@@ -742,7 +736,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="J6" t="n" s="25">
-        <v>0.999999602152718</v>
+        <v>0.9999996235005264</v>
       </c>
       <c r="K6" t="n" s="25">
         <v>0.9167734363556469</v>
@@ -751,11 +745,9 @@
         <v>0.9997059754170516</v>
       </c>
       <c r="M6" t="n" s="25">
-        <v>0.9999999226837086</v>
-      </c>
-      <c r="N6" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999268323706</v>
+      </c>
+      <c r="N6" s="25"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -768,7 +760,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G7" t="n" s="25">
-        <v>0.9933225520474093</v>
+        <v>0.9928864777123033</v>
       </c>
       <c r="H7" t="n" s="25">
         <v>0.7111929936636499</v>
@@ -777,7 +769,7 @@
         <v>0.9752609794337865</v>
       </c>
       <c r="J7" t="n" s="25">
-        <v>0.999968810898045</v>
+        <v>0.9999704844034442</v>
       </c>
       <c r="K7" t="n" s="25">
         <v>0.8779472885806937</v>
@@ -786,11 +778,9 @@
         <v>0.9955900543313</v>
       </c>
       <c r="M7" t="n" s="25">
-        <v>0.9973403593517053</v>
-      </c>
-      <c r="N7" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.997482711952324</v>
+      </c>
+      <c r="N7" s="25"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -803,7 +793,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G8" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H8" t="n" s="25">
         <v>0.6829567786968528</v>
@@ -812,7 +802,7 @@
         <v>0.9591963679410247</v>
       </c>
       <c r="J8" t="n" s="25">
-        <v>0.9997281004082165</v>
+        <v>0.9997426863292396</v>
       </c>
       <c r="K8" t="n" s="25">
         <v>0.6829567786968528</v>
@@ -821,11 +811,9 @@
         <v>0.9591963679410247</v>
       </c>
       <c r="M8" t="n" s="25">
-        <v>5.209189065932091E-4</v>
-      </c>
-      <c r="N8" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>5.504391612552382E-4</v>
+      </c>
+      <c r="N8" s="25"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -838,7 +826,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G9" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H9" t="n" s="25">
         <v>0.7316044330870541</v>
@@ -847,7 +835,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="J9" t="n" s="25">
-        <v>0.999999602152718</v>
+        <v>0.9999996235005264</v>
       </c>
       <c r="K9" t="n" s="25">
         <v>0.9445419984089428</v>
@@ -856,11 +844,9 @@
         <v>0.9999090547450499</v>
       </c>
       <c r="M9" t="n" s="25">
-        <v>0.9999999968694504</v>
-      </c>
-      <c r="N9" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999970374305</v>
+      </c>
+      <c r="N9" s="25"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -873,7 +859,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G10" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H10" t="n" s="25">
         <v>0.6996969133754081</v>
@@ -882,7 +868,7 @@
         <v>0.9690112036423819</v>
       </c>
       <c r="J10" t="n" s="25">
-        <v>0.9999691271621437</v>
+        <v>0.9999707836983395</v>
       </c>
       <c r="K10" t="n" s="25">
         <v>0.8769132644579998</v>
@@ -891,11 +877,9 @@
         <v>0.9987036182399892</v>
       </c>
       <c r="M10" t="n" s="25">
-        <v>0.9988411170644119</v>
-      </c>
-      <c r="N10" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9989032325740709</v>
+      </c>
+      <c r="N10" s="25"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -908,7 +892,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G11" t="n" s="25">
-        <v>0.9801028063812303</v>
+        <v>0.9792575347315228</v>
       </c>
       <c r="H11" t="n" s="25">
         <v>0.7316044330870541</v>
@@ -917,7 +901,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="J11" t="n" s="25">
-        <v>0.9988099974480896</v>
+        <v>0.9988529072654411</v>
       </c>
       <c r="K11" t="n" s="25">
         <v>0.9141129982330776</v>
@@ -926,11 +910,9 @@
         <v>0.9852860829459312</v>
       </c>
       <c r="M11" t="n" s="25">
-        <v>0.8858261471346336</v>
-      </c>
-      <c r="N11" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.8894923467521767</v>
+      </c>
+      <c r="N11" s="25"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -943,7 +925,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G12" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H12" t="n" s="25">
         <v>0.7316044330870541</v>
@@ -952,7 +934,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="J12" t="n" s="25">
-        <v>0.999999602152718</v>
+        <v>0.9999996235005264</v>
       </c>
       <c r="K12" t="n" s="25">
         <v>0.9445419984089428</v>
@@ -961,11 +943,9 @@
         <v>0.9999090547450499</v>
       </c>
       <c r="M12" t="n" s="25">
-        <v>0.9999999968694504</v>
-      </c>
-      <c r="N12" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999970374305</v>
+      </c>
+      <c r="N12" s="25"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -978,7 +958,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G13" t="n" s="25">
-        <v>0.3148272112337479</v>
+        <v>0.3554138624506659</v>
       </c>
       <c r="H13" t="n" s="25">
         <v>0.7159208149572639</v>
@@ -998,9 +978,7 @@
       <c r="M13" t="n" s="25">
         <v>8.601623297027354E-8</v>
       </c>
-      <c r="N13" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N13" s="25"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1033,9 +1011,7 @@
       <c r="M14" t="n" s="25">
         <v>4.223875295285838E-14</v>
       </c>
-      <c r="N14" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N14" s="25"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1048,7 +1024,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G15" t="n" s="25">
-        <v>0.9828025514836383</v>
+        <v>0.9816921251693786</v>
       </c>
       <c r="H15" t="n" s="25">
         <v>0.6829567786968528</v>
@@ -1057,7 +1033,7 @@
         <v>0.9591963679410247</v>
       </c>
       <c r="J15" t="n" s="25">
-        <v>0.09639569952809342</v>
+        <v>0.10130769300315555</v>
       </c>
       <c r="K15" t="n" s="25">
         <v>0.8216755766353819</v>
@@ -1066,11 +1042,9 @@
         <v>0.23423513281242453</v>
       </c>
       <c r="M15" t="n" s="25">
-        <v>6.161590274207595E-8</v>
-      </c>
-      <c r="N15" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>6.51095727803069E-8</v>
+      </c>
+      <c r="N15" s="25"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1103,9 +1077,7 @@
       <c r="M16" t="n" s="25">
         <v>0.14062759518131557</v>
       </c>
-      <c r="N16" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N16" s="25"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1118,7 +1090,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G17" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H17" t="n" s="25">
         <v>0.6996969133754082</v>
@@ -1127,7 +1099,7 @@
         <v>0.9690112036423819</v>
       </c>
       <c r="J17" t="n" s="25">
-        <v>0.9999691271621437</v>
+        <v>0.9999707836983395</v>
       </c>
       <c r="K17" t="n" s="25">
         <v>0.8733346251103455</v>
@@ -1136,11 +1108,9 @@
         <v>0.9986276716196846</v>
       </c>
       <c r="M17" t="n" s="25">
-        <v>0.9992715452391683</v>
-      </c>
-      <c r="N17" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9993106059506085</v>
+      </c>
+      <c r="N17" s="25"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1153,7 +1123,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G18" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H18" t="n" s="25">
         <v>0.7534243418060362</v>
@@ -1162,7 +1132,7 @@
         <v>0.9876280663827864</v>
       </c>
       <c r="J18" t="n" s="25">
-        <v>0.9999999389553557</v>
+        <v>0.9999999422309085</v>
       </c>
       <c r="K18" t="n" s="25">
         <v>0.9471644072694203</v>
@@ -1171,11 +1141,9 @@
         <v>0.9999300113286804</v>
       </c>
       <c r="M18" t="n" s="25">
-        <v>0.9999999997918735</v>
-      </c>
-      <c r="N18" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999998030413</v>
+      </c>
+      <c r="N18" s="25"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1188,7 +1156,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G19" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H19" t="n" s="25">
         <v>0.7316044330870541</v>
@@ -1197,7 +1165,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="J19" t="n" s="25">
-        <v>0.999999602152718</v>
+        <v>0.9999996235005264</v>
       </c>
       <c r="K19" t="n" s="25">
         <v>0.9167734363556469</v>
@@ -1206,11 +1174,9 @@
         <v>0.9997059754170516</v>
       </c>
       <c r="M19" t="n" s="25">
-        <v>0.9999999226837086</v>
-      </c>
-      <c r="N19" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999268323706</v>
+      </c>
+      <c r="N19" s="25"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1223,7 +1189,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G20" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H20" t="n" s="25">
         <v>0.7316044330870541</v>
@@ -1232,7 +1198,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="J20" t="n" s="25">
-        <v>0.999999602152718</v>
+        <v>0.9999996235005264</v>
       </c>
       <c r="K20" t="n" s="25">
         <v>0.888422347765727</v>
@@ -1241,11 +1207,9 @@
         <v>0.9992116235241997</v>
       </c>
       <c r="M20" t="n" s="25">
-        <v>0.9999914961412879</v>
-      </c>
-      <c r="N20" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.999991952440383</v>
+      </c>
+      <c r="N20" s="25"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1258,7 +1222,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G21" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H21" t="n" s="25">
         <v>0.7534243418060362</v>
@@ -1267,7 +1231,7 @@
         <v>0.9876280663827864</v>
       </c>
       <c r="J21" t="n" s="25">
-        <v>0.9999999389553557</v>
+        <v>0.9999999422309085</v>
       </c>
       <c r="K21" t="n" s="25">
         <v>0.9635197905171162</v>
@@ -1276,11 +1240,9 @@
         <v>0.9999765013162607</v>
       </c>
       <c r="M21" t="n" s="25">
-        <v>0.9999999999956328</v>
-      </c>
-      <c r="N21" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999958671</v>
+      </c>
+      <c r="N21" s="25"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1293,7 +1255,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G22" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H22" t="n" s="25">
         <v>0.7316044330870541</v>
@@ -1302,7 +1264,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="J22" t="n" s="25">
-        <v>0.999999602152718</v>
+        <v>0.9999996235005264</v>
       </c>
       <c r="K22" t="n" s="25">
         <v>0.9214535332316106</v>
@@ -1311,11 +1273,9 @@
         <v>0.9997351763609814</v>
       </c>
       <c r="M22" t="n" s="25">
-        <v>0.9999998215587466</v>
-      </c>
-      <c r="N22" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999998311336027</v>
+      </c>
+      <c r="N22" s="25"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1328,7 +1288,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G23" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H23" t="n" s="25">
         <v>0.7534243418060362</v>
@@ -1337,7 +1297,7 @@
         <v>0.9876280663827864</v>
       </c>
       <c r="J23" t="n" s="25">
-        <v>0.9999999389553557</v>
+        <v>0.9999999422309085</v>
       </c>
       <c r="K23" t="n" s="25">
         <v>0.9250811156436468</v>
@@ -1346,11 +1306,9 @@
         <v>0.9997961917049657</v>
       </c>
       <c r="M23" t="n" s="25">
-        <v>0.9999999881367941</v>
-      </c>
-      <c r="N23" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999887733538</v>
+      </c>
+      <c r="N23" s="25"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1363,7 +1321,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G24" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H24" t="n" s="25">
         <v>0.7316044330870541</v>
@@ -1372,7 +1330,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="J24" t="n" s="25">
-        <v>0.999999602152718</v>
+        <v>0.9999996235005264</v>
       </c>
       <c r="K24" t="n" s="25">
         <v>0.9214535332316106</v>
@@ -1381,11 +1339,9 @@
         <v>0.9997351763609814</v>
       </c>
       <c r="M24" t="n" s="25">
-        <v>0.9999998215587466</v>
-      </c>
-      <c r="N24" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999998311336027</v>
+      </c>
+      <c r="N24" s="25"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1398,7 +1354,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G25" t="n" s="25">
-        <v>0.9933225520474093</v>
+        <v>0.9928864777123033</v>
       </c>
       <c r="H25" t="n" s="25">
         <v>0.7316044330870541</v>
@@ -1407,7 +1363,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="J25" t="n" s="25">
-        <v>0.9999956029834031</v>
+        <v>0.9999958389189424</v>
       </c>
       <c r="K25" t="n" s="25">
         <v>0.888422347765727</v>
@@ -1416,11 +1372,9 @@
         <v>0.9968539349478337</v>
       </c>
       <c r="M25" t="n" s="25">
-        <v>0.9996241972731065</v>
-      </c>
-      <c r="N25" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9996443550443045</v>
+      </c>
+      <c r="N25" s="25"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1433,7 +1387,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G26" t="n" s="25">
-        <v>0.09514530062866874</v>
+        <v>0.15376072323382972</v>
       </c>
       <c r="H26" t="n" s="25">
         <v>0.6829567786968528</v>
@@ -1453,9 +1407,7 @@
       <c r="M26" t="n" s="25">
         <v>1.2726172777486173E-12</v>
       </c>
-      <c r="N26" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N26" s="25"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1468,7 +1420,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G27" t="n" s="25">
-        <v>0.5052149598749022</v>
+        <v>0.5506215073059192</v>
       </c>
       <c r="H27" t="n" s="25">
         <v>0.7385601264156039</v>
@@ -1488,9 +1440,7 @@
       <c r="M27" t="n" s="25">
         <v>5.879829641105383E-16</v>
       </c>
-      <c r="N27" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N27" s="25"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1503,7 +1453,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G28" t="n" s="25">
-        <v>0.9933225520474093</v>
+        <v>0.9928864777123033</v>
       </c>
       <c r="H28" t="n" s="25">
         <v>0.692434158001273</v>
@@ -1512,7 +1462,7 @@
         <v>0.9665117971876827</v>
       </c>
       <c r="J28" t="n" s="25">
-        <v>0.999755877771379</v>
+        <v>0.9997689739336456</v>
       </c>
       <c r="K28" t="n" s="25">
         <v>0.8680094586607202</v>
@@ -1521,11 +1471,9 @@
         <v>0.9939861023838296</v>
       </c>
       <c r="M28" t="n" s="25">
-        <v>0.9795495475633562</v>
-      </c>
-      <c r="N28" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9806256242548737</v>
+      </c>
+      <c r="N28" s="25"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1538,7 +1486,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G29" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H29" t="n" s="25">
         <v>0.6401785876614176</v>
@@ -1547,7 +1495,7 @@
         <v>0.9245978509765802</v>
       </c>
       <c r="J29" t="n" s="25">
-        <v>0.9851211405752591</v>
+        <v>0.9859082646834377</v>
       </c>
       <c r="K29" t="n" s="25">
         <v>0.7075836143247645</v>
@@ -1556,11 +1504,9 @@
         <v>0.9695879344009517</v>
       </c>
       <c r="M29" t="n" s="25">
-        <v>0.001405171572120686</v>
-      </c>
-      <c r="N29" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.001484727613461698</v>
+      </c>
+      <c r="N29" s="25"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1573,7 +1519,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G30" t="n" s="25">
-        <v>0.018426889008812446</v>
+        <v>0.03142016969408568</v>
       </c>
       <c r="H30" t="n" s="25">
         <v>0.6401785876614176</v>
@@ -1593,9 +1539,7 @@
       <c r="M30" t="n" s="25">
         <v>3.730883731321004E-21</v>
       </c>
-      <c r="N30" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N30" s="25"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1608,7 +1552,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G31" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H31" t="n" s="25">
         <v>0.7316044330870541</v>
@@ -1617,7 +1561,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="J31" t="n" s="25">
-        <v>0.999999602152718</v>
+        <v>0.9999996235005264</v>
       </c>
       <c r="K31" t="n" s="25">
         <v>0.9411497385795023</v>
@@ -1626,11 +1570,9 @@
         <v>0.9998990246732269</v>
       </c>
       <c r="M31" t="n" s="25">
-        <v>0.9999999986435735</v>
-      </c>
-      <c r="N31" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999987163569</v>
+      </c>
+      <c r="N31" s="25"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1643,7 +1585,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G32" t="n" s="25">
-        <v>0.005531324261731305</v>
+        <v>0.009519793979201703</v>
       </c>
       <c r="H32" t="n" s="25">
         <v>0.6401785876614176</v>
@@ -1663,9 +1605,7 @@
       <c r="M32" t="n" s="25">
         <v>3.4527710110911434E-22</v>
       </c>
-      <c r="N32" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N32" s="25"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1678,7 +1618,7 @@
         <v>9.768802406985061E-4</v>
       </c>
       <c r="G33" t="n" s="25">
-        <v>9.190190664003083E-6</v>
+        <v>1.5880543219277158E-5</v>
       </c>
       <c r="H33" t="n" s="25">
         <v>9.768802406985061E-4</v>
@@ -1698,9 +1638,7 @@
       <c r="M33" t="n" s="25">
         <v>4.4285314769264025E-28</v>
       </c>
-      <c r="N33" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N33" s="25"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1713,7 +1651,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G34" t="n" s="25">
-        <v>0.02791617358898927</v>
+        <v>0.047278312037839956</v>
       </c>
       <c r="H34" t="n" s="25">
         <v>0.6829567786968528</v>
@@ -1733,9 +1671,7 @@
       <c r="M34" t="n" s="25">
         <v>1.1971885711790558E-20</v>
       </c>
-      <c r="N34" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N34" s="25"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1748,7 +1684,7 @@
         <v>5.384158815076992E-5</v>
       </c>
       <c r="G35" t="n" s="25">
-        <v>3.920573777893729E-7</v>
+        <v>5.645625266266991E-7</v>
       </c>
       <c r="H35" t="n" s="25">
         <v>5.384158815076992E-5</v>
@@ -1768,9 +1704,7 @@
       <c r="M35" t="n" s="25">
         <v>4.998657529904819E-32</v>
       </c>
-      <c r="N35" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N35" s="25"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1783,7 +1717,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G36" t="n" s="25">
-        <v>0.02791617358898927</v>
+        <v>0.047278312037839956</v>
       </c>
       <c r="H36" t="n" s="25">
         <v>0.6829567786968528</v>
@@ -1803,9 +1737,7 @@
       <c r="M36" t="n" s="25">
         <v>5.035544274623008E-22</v>
       </c>
-      <c r="N36" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N36" s="25"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1818,7 +1750,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G37" t="n" s="25">
-        <v>0.02791617358898927</v>
+        <v>0.047278312037839956</v>
       </c>
       <c r="H37" t="n" s="25">
         <v>0.6829567786968528</v>
@@ -1838,9 +1770,7 @@
       <c r="M37" t="n" s="25">
         <v>1.1971885711790558E-20</v>
       </c>
-      <c r="N37" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N37" s="25"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1853,7 +1783,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G38" t="n" s="25">
-        <v>0.14656481347770464</v>
+        <v>0.22884628569583482</v>
       </c>
       <c r="H38" t="n" s="25">
         <v>0.7071485155481354</v>
@@ -1873,9 +1803,7 @@
       <c r="M38" t="n" s="25">
         <v>2.4050507864457616E-11</v>
       </c>
-      <c r="N38" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N38" s="25"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1888,7 +1816,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G39" t="n" s="25">
-        <v>0.02791617358898927</v>
+        <v>0.047278312037839956</v>
       </c>
       <c r="H39" t="n" s="25">
         <v>0.6829567786968528</v>
@@ -1908,9 +1836,7 @@
       <c r="M39" t="n" s="25">
         <v>9.37412715123976E-21</v>
       </c>
-      <c r="N39" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N39" s="25"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1923,7 +1849,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G40" t="n" s="25">
-        <v>0.007128289318758571</v>
+        <v>0.01225409262044758</v>
       </c>
       <c r="H40" t="n" s="25">
         <v>0.6680425829099689</v>
@@ -1943,9 +1869,7 @@
       <c r="M40" t="n" s="25">
         <v>5.771294027392639E-22</v>
       </c>
-      <c r="N40" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N40" s="25"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1958,7 +1882,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G41" t="n" s="25">
-        <v>0.9671803425550953</v>
+        <v>0.9650970251585022</v>
       </c>
       <c r="H41" t="n" s="25">
         <v>0.7316044330870541</v>
@@ -1967,7 +1891,7 @@
         <v>0.9613872289691694</v>
       </c>
       <c r="J41" t="n" s="25">
-        <v>0.9999745422512643</v>
+        <v>0.9999759082383678</v>
       </c>
       <c r="K41" t="n" s="25">
         <v>0.9445419984089428</v>
@@ -1976,11 +1900,9 @@
         <v>0.9995510484295643</v>
       </c>
       <c r="M41" t="n" s="25">
-        <v>0.9998606186949656</v>
-      </c>
-      <c r="N41" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9998680966750518</v>
+      </c>
+      <c r="N41" s="25"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1993,7 +1915,7 @@
         <v>0.052042372113665365</v>
       </c>
       <c r="G42" t="n" s="25">
-        <v>8.824506109392251E-4</v>
+        <v>0.0012702356748436712</v>
       </c>
       <c r="H42" t="n" s="25">
         <v>0.047792567550357115</v>
@@ -2013,9 +1935,7 @@
       <c r="M42" t="n" s="25">
         <v>1.2654786377318626E-27</v>
       </c>
-      <c r="N42" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N42" s="25"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2028,7 +1948,7 @@
         <v>0.7340691274635647</v>
       </c>
       <c r="G43" t="n" s="25">
-        <v>0.05450990168470188</v>
+        <v>0.09059789496237418</v>
       </c>
       <c r="H43" t="n" s="25">
         <v>0.7071485155481354</v>
@@ -2048,9 +1968,7 @@
       <c r="M43" t="n" s="25">
         <v>9.415651775896182E-21</v>
       </c>
-      <c r="N43" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N43" s="25"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2063,7 +1981,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G44" t="n" s="25">
-        <v>0.038211116545414155</v>
+        <v>0.06424175206373803</v>
       </c>
       <c r="H44" t="n" s="25">
         <v>0.6829567786968528</v>
@@ -2083,9 +2001,7 @@
       <c r="M44" t="n" s="25">
         <v>8.029109777590816E-19</v>
       </c>
-      <c r="N44" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N44" s="25"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2098,7 +2014,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G45" t="n" s="25">
-        <v>0.10303561408963409</v>
+        <v>0.14193649802533329</v>
       </c>
       <c r="H45" t="n" s="25">
         <v>0.6996969133754082</v>
@@ -2118,9 +2034,7 @@
       <c r="M45" t="n" s="25">
         <v>2.348549793560446E-19</v>
       </c>
-      <c r="N45" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N45" s="25"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2133,7 +2047,7 @@
         <v>8.025490472864022E-4</v>
       </c>
       <c r="G46" t="n" s="25">
-        <v>4.3683420700047877E-10</v>
+        <v>7.548495094567735E-10</v>
       </c>
       <c r="H46" t="n" s="25">
         <v>6.347848443959018E-4</v>
@@ -2153,9 +2067,7 @@
       <c r="M46" t="n" s="25">
         <v>7.207247860980099E-44</v>
       </c>
-      <c r="N46" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N46" s="25"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2168,7 +2080,7 @@
         <v>0.10058268341625781</v>
       </c>
       <c r="G47" t="n" s="25">
-        <v>2.2383804051887406E-4</v>
+        <v>3.2229503591588285E-4</v>
       </c>
       <c r="H47" t="n" s="25">
         <v>0.08970248000115404</v>
@@ -2188,9 +2100,7 @@
       <c r="M47" t="n" s="25">
         <v>2.9829309711616175E-28</v>
       </c>
-      <c r="N47" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N47" s="25"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2203,7 +2113,7 @@
         <v>0.025505304075420836</v>
       </c>
       <c r="G48" t="n" s="25">
-        <v>5.258962820114431E-4</v>
+        <v>9.084009917311707E-4</v>
       </c>
       <c r="H48" t="n" s="25">
         <v>0.025505304075420836</v>
@@ -2223,9 +2133,7 @@
       <c r="M48" t="n" s="25">
         <v>8.601940161434726E-28</v>
       </c>
-      <c r="N48" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N48" s="25"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2238,7 +2146,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G49" t="n" s="25">
-        <v>0.0040044016131334445</v>
+        <v>0.006899492556612685</v>
       </c>
       <c r="H49" t="n" s="25">
         <v>0.6401785876614176</v>
@@ -2258,9 +2166,7 @@
       <c r="M49" t="n" s="25">
         <v>5.148289297169116E-24</v>
       </c>
-      <c r="N49" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N49" s="25"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2273,7 +2179,7 @@
         <v>0.10948156680411794</v>
       </c>
       <c r="G50" t="n" s="25">
-        <v>4.044001408152719E-5</v>
+        <v>6.987828709302964E-5</v>
       </c>
       <c r="H50" t="n" s="25">
         <v>0.08236190034109239</v>
@@ -2293,9 +2199,7 @@
       <c r="M50" t="n" s="25">
         <v>2.911855003839712E-29</v>
       </c>
-      <c r="N50" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N50" s="25"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2308,7 +2212,7 @@
         <v>4.5752308547672465E-4</v>
       </c>
       <c r="G51" t="n" s="25">
-        <v>1.998150290798302E-6</v>
+        <v>2.816882027481418E-6</v>
       </c>
       <c r="H51" t="n" s="25">
         <v>4.5752308547672465E-4</v>
@@ -2317,7 +2221,7 @@
         <v>3.606934679719084E-14</v>
       </c>
       <c r="J51" t="n" s="25">
-        <v>1.3901061764335127E-23</v>
+        <v>1.4158980494175223E-23</v>
       </c>
       <c r="K51" t="n" s="25">
         <v>2.919761239570629E-11</v>
@@ -2326,11 +2230,9 @@
         <v>1.956807826731423E-24</v>
       </c>
       <c r="M51" t="n" s="25">
-        <v>1.425343949228985E-36</v>
-      </c>
-      <c r="N51" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>1.4517896198693103E-36</v>
+      </c>
+      <c r="N51" s="25"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2343,7 +2245,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G52" t="n" s="25">
-        <v>0.024891585169378644</v>
+        <v>0.042247096412176374</v>
       </c>
       <c r="H52" t="n" s="25">
         <v>0.6856762743610988</v>
@@ -2363,9 +2265,7 @@
       <c r="M52" t="n" s="25">
         <v>4.090023772880793E-22</v>
       </c>
-      <c r="N52" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N52" s="25"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2398,9 +2298,7 @@
       <c r="M53" t="n" s="25">
         <v>1.3913388616296457E-6</v>
       </c>
-      <c r="N53" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N53" s="25"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2413,7 +2311,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G54" t="n" s="25">
-        <v>0.9562099682450294</v>
+        <v>0.955312202862314</v>
       </c>
       <c r="H54" t="n" s="25">
         <v>0.7534243418060362</v>
@@ -2422,7 +2320,7 @@
         <v>0.9876280663827864</v>
       </c>
       <c r="J54" t="n" s="25">
-        <v>0.997447971596688</v>
+        <v>0.9974943426373849</v>
       </c>
       <c r="K54" t="n" s="25">
         <v>0.9261480365065414</v>
@@ -2431,11 +2329,9 @@
         <v>0.9854889406918442</v>
       </c>
       <c r="M54" t="n" s="25">
-        <v>0.04491111764709113</v>
-      </c>
-      <c r="N54" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.04570630749104467</v>
+      </c>
+      <c r="N54" s="25"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2468,9 +2364,7 @@
       <c r="M55" t="n" s="25">
         <v>5.9033167926756635E-12</v>
       </c>
-      <c r="N55" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N55" s="25"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2483,7 +2377,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G56" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H56" t="n" s="25">
         <v>0.7316044330870541</v>
@@ -2492,7 +2386,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="J56" t="n" s="25">
-        <v>0.999999602152718</v>
+        <v>0.9999996235005264</v>
       </c>
       <c r="K56" t="n" s="25">
         <v>0.9167734363556469</v>
@@ -2501,11 +2395,9 @@
         <v>0.9997059754170516</v>
       </c>
       <c r="M56" t="n" s="25">
-        <v>0.9999999226837086</v>
-      </c>
-      <c r="N56" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999268323706</v>
+      </c>
+      <c r="N56" s="25"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2518,7 +2410,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G57" t="n" s="25">
-        <v>0.7299087990267704</v>
+        <v>0.7643145724945005</v>
       </c>
       <c r="H57" t="n" s="25">
         <v>0.7385601264156039</v>
@@ -2538,9 +2430,7 @@
       <c r="M57" t="n" s="25">
         <v>8.473180946605614E-12</v>
       </c>
-      <c r="N57" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N57" s="25"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2553,7 +2443,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G58" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H58" t="n" s="25">
         <v>0.6829567786968528</v>
@@ -2562,7 +2452,7 @@
         <v>0.9591963679410247</v>
       </c>
       <c r="J58" t="n" s="25">
-        <v>0.9997281004082165</v>
+        <v>0.9997426863292396</v>
       </c>
       <c r="K58" t="n" s="25">
         <v>0.6829567786968528</v>
@@ -2571,11 +2461,9 @@
         <v>0.9591963679410247</v>
       </c>
       <c r="M58" t="n" s="25">
-        <v>5.209189065932091E-4</v>
-      </c>
-      <c r="N58" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>5.504391612552382E-4</v>
+      </c>
+      <c r="N58" s="25"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2588,7 +2476,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G59" t="n" s="25">
-        <v>0.7431611038296349</v>
+        <v>0.8064501429956877</v>
       </c>
       <c r="H59" t="n" s="25">
         <v>0.6996969133754081</v>
@@ -2608,9 +2496,7 @@
       <c r="M59" t="n" s="25">
         <v>7.280071564751078E-8</v>
       </c>
-      <c r="N59" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N59" s="25"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2623,7 +2509,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G60" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H60" t="n" s="25">
         <v>0.7316044330870541</v>
@@ -2632,7 +2518,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="J60" t="n" s="25">
-        <v>0.999999602152718</v>
+        <v>0.9999996235005264</v>
       </c>
       <c r="K60" t="n" s="25">
         <v>0.7957750094823669</v>
@@ -2641,11 +2527,9 @@
         <v>0.993676360438277</v>
       </c>
       <c r="M60" t="n" s="25">
-        <v>0.9609717109117076</v>
-      </c>
-      <c r="N60" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9629883938896815</v>
+      </c>
+      <c r="N60" s="25"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2678,9 +2562,7 @@
       <c r="M61" t="n" s="25">
         <v>5.189076766691937E-5</v>
       </c>
-      <c r="N61" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N61" s="25"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2693,7 +2575,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G62" t="n" s="25">
-        <v>0.9733119351616559</v>
+        <v>0.9727547972203073</v>
       </c>
       <c r="H62" t="n" s="25">
         <v>0.7316044330870541</v>
@@ -2702,7 +2584,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="J62" t="n" s="25">
-        <v>0.9934937995407903</v>
+        <v>0.9936115587750459</v>
       </c>
       <c r="K62" t="n" s="25">
         <v>0.888422347765727</v>
@@ -2711,11 +2593,9 @@
         <v>0.9223732172553919</v>
       </c>
       <c r="M62" t="n" s="25">
-        <v>1.1309763024657469E-4</v>
-      </c>
-      <c r="N62" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>1.1519578917678754E-4</v>
+      </c>
+      <c r="N62" s="25"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2728,7 +2608,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G63" t="n" s="25">
-        <v>0.9552994161818187</v>
+        <v>0.9543838735802075</v>
       </c>
       <c r="H63" t="n" s="25">
         <v>0.7316044330870541</v>
@@ -2737,7 +2617,7 @@
         <v>0.9613872289691694</v>
       </c>
       <c r="J63" t="n" s="25">
-        <v>0.9989808851776693</v>
+        <v>0.9989994307079924</v>
       </c>
       <c r="K63" t="n" s="25">
         <v>0.8477949709403928</v>
@@ -2746,11 +2626,9 @@
         <v>0.8442905971159711</v>
       </c>
       <c r="M63" t="n" s="25">
-        <v>7.357813984730934E-4</v>
-      </c>
-      <c r="N63" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>7.494227726096613E-4</v>
+      </c>
+      <c r="N63" s="25"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2763,7 +2641,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G64" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H64" t="n" s="25">
         <v>0.6996969133754081</v>
@@ -2772,7 +2650,7 @@
         <v>0.9690112036423819</v>
       </c>
       <c r="J64" t="n" s="25">
-        <v>0.9999691271621437</v>
+        <v>0.9999707836983395</v>
       </c>
       <c r="K64" t="n" s="25">
         <v>0.8286349044740196</v>
@@ -2781,11 +2659,9 @@
         <v>0.9961485452698957</v>
       </c>
       <c r="M64" t="n" s="25">
-        <v>0.9476044236143539</v>
-      </c>
-      <c r="N64" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.950276085462358</v>
+      </c>
+      <c r="N64" s="25"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2798,7 +2674,7 @@
         <v>0.7363918248531861</v>
       </c>
       <c r="G65" t="n" s="25">
-        <v>0.9352679666117054</v>
+        <v>0.9326489093645504</v>
       </c>
       <c r="H65" t="n" s="25">
         <v>0.7316044330870541</v>
@@ -2807,7 +2683,7 @@
         <v>0.9479931160663277</v>
       </c>
       <c r="J65" t="n" s="25">
-        <v>0.9924884457360275</v>
+        <v>0.992757648978208</v>
       </c>
       <c r="K65" t="n" s="25">
         <v>0.9203812701916123</v>
@@ -2816,11 +2692,9 @@
         <v>0.7412239616309663</v>
       </c>
       <c r="M65" t="n" s="25">
-        <v>0.0017395896568625272</v>
-      </c>
-      <c r="N65" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.0018046232316397035</v>
+      </c>
+      <c r="N65" s="25"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2833,7 +2707,7 @@
         <v>0.4587254838796097</v>
       </c>
       <c r="G66" t="n" s="25">
-        <v>0.0015143623157138379</v>
+        <v>0.0026139363323723517</v>
       </c>
       <c r="H66" t="n" s="25">
         <v>0.34800195742291073</v>
@@ -2853,9 +2727,7 @@
       <c r="M66" t="n" s="25">
         <v>1.4850494087162245E-23</v>
       </c>
-      <c r="N66" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N66" s="25"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2888,9 +2760,7 @@
       <c r="M67" t="n" s="25">
         <v>1.2145702051371132E-12</v>
       </c>
-      <c r="N67" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N67" s="25"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2903,7 +2773,7 @@
         <v>0.7385601264156039</v>
       </c>
       <c r="G68" t="n" s="25">
-        <v>0.6863160523433215</v>
+        <v>0.724176474918757</v>
       </c>
       <c r="H68" t="n" s="25">
         <v>0.7159208149572638</v>
@@ -2923,9 +2793,7 @@
       <c r="M68" t="n" s="25">
         <v>2.8917027551769208E-6</v>
       </c>
-      <c r="N68" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N68" s="25"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2938,7 +2806,7 @@
         <v>0.10525730007666033</v>
       </c>
       <c r="G69" t="n" s="25">
-        <v>0.0012559731781987028</v>
+        <v>0.0017696923983775497</v>
       </c>
       <c r="H69" t="n" s="25">
         <v>0.09136745389598243</v>
@@ -2947,7 +2815,7 @@
         <v>1.2451636686938675E-6</v>
       </c>
       <c r="J69" t="n" s="25">
-        <v>1.4976504812676358E-14</v>
+        <v>1.5254377191363272E-14</v>
       </c>
       <c r="K69" t="n" s="25">
         <v>5.4296697165254546E-5</v>
@@ -2956,11 +2824,9 @@
         <v>2.3827792924544537E-14</v>
       </c>
       <c r="M69" t="n" s="25">
-        <v>3.385393281367431E-27</v>
-      </c>
-      <c r="N69" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>3.4482054859272054E-27</v>
+      </c>
+      <c r="N69" s="25"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2973,7 +2839,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G70" t="n" s="25">
-        <v>0.052079272828243935</v>
+        <v>0.0867056505049327</v>
       </c>
       <c r="H70" t="n" s="25">
         <v>0.6829567786968528</v>
@@ -2993,9 +2859,7 @@
       <c r="M70" t="n" s="25">
         <v>1.138518340251396E-15</v>
       </c>
-      <c r="N70" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N70" s="25"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3028,9 +2892,7 @@
       <c r="M71" t="n" s="25">
         <v>6.359846068754477E-21</v>
       </c>
-      <c r="N71" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N71" s="25"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3043,7 +2905,7 @@
         <v>0.4587254838796097</v>
       </c>
       <c r="G72" t="n" s="25">
-        <v>0.014154998161476978</v>
+        <v>0.02421035304100537</v>
       </c>
       <c r="H72" t="n" s="25">
         <v>0.37139414995226255</v>
@@ -3063,9 +2925,7 @@
       <c r="M72" t="n" s="25">
         <v>2.1317604607561888E-14</v>
       </c>
-      <c r="N72" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N72" s="25"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3078,7 +2938,7 @@
         <v>0.4587254838796097</v>
       </c>
       <c r="G73" t="n" s="25">
-        <v>0.017392640185162487</v>
+        <v>0.029678695287833748</v>
       </c>
       <c r="H73" t="n" s="25">
         <v>0.4200915219764364</v>
@@ -3098,9 +2958,7 @@
       <c r="M73" t="n" s="25">
         <v>4.107288379325319E-25</v>
       </c>
-      <c r="N73" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N73" s="25"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3113,7 +2971,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G74" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H74" t="n" s="25">
         <v>0.6829567786968528</v>
@@ -3122,7 +2980,7 @@
         <v>0.9591963679410247</v>
       </c>
       <c r="J74" t="n" s="25">
-        <v>0.9997281004082165</v>
+        <v>0.9997426863292396</v>
       </c>
       <c r="K74" t="n" s="25">
         <v>0.7604100612629134</v>
@@ -3131,11 +2989,9 @@
         <v>0.9859191716282969</v>
       </c>
       <c r="M74" t="n" s="25">
-        <v>0.024236252950678126</v>
-      </c>
-      <c r="N74" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.02557532162005244</v>
+      </c>
+      <c r="N74" s="25"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3168,9 +3024,7 @@
       <c r="M75" t="n" s="25">
         <v>1.2909273683807054E-4</v>
       </c>
-      <c r="N75" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N75" s="25"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3183,7 +3037,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G76" t="n" s="25">
-        <v>0.13512277275622142</v>
+        <v>0.18365760957386298</v>
       </c>
       <c r="H76" t="n" s="25">
         <v>0.6996969133754081</v>
@@ -3203,9 +3057,7 @@
       <c r="M76" t="n" s="25">
         <v>4.068987528610454E-15</v>
       </c>
-      <c r="N76" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N76" s="25"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3218,7 +3070,7 @@
         <v>0.4587254838796097</v>
       </c>
       <c r="G77" t="n" s="25">
-        <v>0.0016735904128896372</v>
+        <v>0.002888445027669388</v>
       </c>
       <c r="H77" t="n" s="25">
         <v>0.37870766441751985</v>
@@ -3238,9 +3090,7 @@
       <c r="M77" t="n" s="25">
         <v>1.8349328064146674E-27</v>
       </c>
-      <c r="N77" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N77" s="25"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3253,7 +3103,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G78" t="n" s="25">
-        <v>0.9290187966904937</v>
+        <v>0.9377058193530685</v>
       </c>
       <c r="H78" t="n" s="25">
         <v>0.6401785876614176</v>
@@ -3262,7 +3112,7 @@
         <v>0.7862638825991429</v>
       </c>
       <c r="J78" t="n" s="25">
-        <v>0.002584760891608156</v>
+        <v>0.002681305847821302</v>
       </c>
       <c r="K78" t="n" s="25">
         <v>0.6401785876614179</v>
@@ -3271,11 +3121,9 @@
         <v>0.013607286650882679</v>
       </c>
       <c r="M78" t="n" s="25">
-        <v>1.3775225278007352E-12</v>
-      </c>
-      <c r="N78" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>1.4291135301961888E-12</v>
+      </c>
+      <c r="N78" s="25"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3288,7 +3136,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G79" t="n" s="25">
-        <v>0.5811776294829107</v>
+        <v>0.6617313101042623</v>
       </c>
       <c r="H79" t="n" s="25">
         <v>0.7231291424266525</v>
@@ -3297,7 +3145,7 @@
         <v>0.49761042876840417</v>
       </c>
       <c r="J79" t="n" s="25">
-        <v>0.005669537413590549</v>
+        <v>0.005774121979194041</v>
       </c>
       <c r="K79" t="n" s="25">
         <v>0.4393165758535491</v>
@@ -3306,11 +3154,9 @@
         <v>3.368502317118387E-4</v>
       </c>
       <c r="M79" t="n" s="25">
-        <v>9.165433334985174E-13</v>
-      </c>
-      <c r="N79" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>9.335487749839747E-13</v>
+      </c>
+      <c r="N79" s="25"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3323,7 +3169,7 @@
         <v>0.5508907634782401</v>
       </c>
       <c r="G80" t="n" s="25">
-        <v>0.044081570258583114</v>
+        <v>0.06226968515191789</v>
       </c>
       <c r="H80" t="n" s="25">
         <v>0.511834616901498</v>
@@ -3343,9 +3189,7 @@
       <c r="M80" t="n" s="25">
         <v>1.9091887101768093E-20</v>
       </c>
-      <c r="N80" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N80" s="25"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3358,7 +3202,7 @@
         <v>0.007434626941461539</v>
       </c>
       <c r="G81" t="n" s="25">
-        <v>8.564816239063493E-4</v>
+        <v>0.001006033996728818</v>
       </c>
       <c r="H81" t="n" s="25">
         <v>0.007434626941461539</v>
@@ -3367,7 +3211,7 @@
         <v>5.149328065867428E-5</v>
       </c>
       <c r="J81" t="n" s="25">
-        <v>1.3742308702329036E-6</v>
+        <v>1.3997281588894714E-6</v>
       </c>
       <c r="K81" t="n" s="25">
         <v>9.63347281082213E-4</v>
@@ -3376,11 +3220,9 @@
         <v>1.493584954166537E-8</v>
       </c>
       <c r="M81" t="n" s="25">
-        <v>1.3748077790899953E-15</v>
-      </c>
-      <c r="N81" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>1.4003158073376578E-15</v>
+      </c>
+      <c r="N81" s="25"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3393,7 +3235,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G82" t="n" s="25">
-        <v>0.03759015796887993</v>
+        <v>0.06322558469666892</v>
       </c>
       <c r="H82" t="n" s="25">
         <v>0.6829567786968528</v>
@@ -3413,9 +3255,7 @@
       <c r="M82" t="n" s="25">
         <v>5.818834816119994E-20</v>
       </c>
-      <c r="N82" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N82" s="25"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3428,7 +3268,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G83" t="n" s="25">
-        <v>0.02791617358898927</v>
+        <v>0.047278312037839956</v>
       </c>
       <c r="H83" t="n" s="25">
         <v>0.6829567786968528</v>
@@ -3448,9 +3288,7 @@
       <c r="M83" t="n" s="25">
         <v>5.035544274623008E-22</v>
       </c>
-      <c r="N83" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N83" s="25"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3463,7 +3301,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G84" t="n" s="25">
-        <v>0.9804479805732518</v>
+        <v>0.9796170676409923</v>
       </c>
       <c r="H84" t="n" s="25">
         <v>0.7534243418060362</v>
@@ -3472,7 +3310,7 @@
         <v>0.9876280663827864</v>
       </c>
       <c r="J84" t="n" s="25">
-        <v>0.9992671381622388</v>
+        <v>0.9992935757872293</v>
       </c>
       <c r="K84" t="n" s="25">
         <v>0.8637848419524465</v>
@@ -3481,11 +3319,9 @@
         <v>0.7697279769753026</v>
       </c>
       <c r="M84" t="n" s="25">
-        <v>0.0038395140623821004</v>
-      </c>
-      <c r="N84" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.0039827389148566214</v>
+      </c>
+      <c r="N84" s="25"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3498,7 +3334,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G85" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H85" t="n" s="25">
         <v>0.6829567786968528</v>
@@ -3507,7 +3343,7 @@
         <v>0.9591963679410247</v>
       </c>
       <c r="J85" t="n" s="25">
-        <v>0.9997281004082165</v>
+        <v>0.9997426863292396</v>
       </c>
       <c r="K85" t="n" s="25">
         <v>0.8216755766353819</v>
@@ -3516,11 +3352,9 @@
         <v>0.9951201085298701</v>
       </c>
       <c r="M85" t="n" s="25">
-        <v>0.5860549010541988</v>
-      </c>
-      <c r="N85" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.5993678182928002</v>
+      </c>
+      <c r="N85" s="25"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3533,7 +3367,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G86" t="n" s="25">
-        <v>0.9325324939939477</v>
+        <v>0.9311842374338765</v>
       </c>
       <c r="H86" t="n" s="25">
         <v>0.7159208149572638</v>
@@ -3542,7 +3376,7 @@
         <v>0.9492840913128473</v>
       </c>
       <c r="J86" t="n" s="25">
-        <v>0.9601405573287722</v>
+        <v>0.9608381989462977</v>
       </c>
       <c r="K86" t="n" s="25">
         <v>0.7827275653816527</v>
@@ -3551,11 +3385,9 @@
         <v>0.5011724631182407</v>
       </c>
       <c r="M86" t="n" s="25">
-        <v>1.8327843610207258E-7</v>
-      </c>
-      <c r="N86" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>1.866789628692664E-7</v>
+      </c>
+      <c r="N86" s="25"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3568,7 +3400,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G87" t="n" s="25">
-        <v>0.9728451639664663</v>
+        <v>0.9763053051518303</v>
       </c>
       <c r="H87" t="n" s="25">
         <v>0.6632323759973657</v>
@@ -3577,7 +3409,7 @@
         <v>0.8377428633678158</v>
       </c>
       <c r="J87" t="n" s="25">
-        <v>0.9678639985604922</v>
+        <v>0.9689881311302435</v>
       </c>
       <c r="K87" t="n" s="25">
         <v>0.7436959359094375</v>
@@ -3586,11 +3418,9 @@
         <v>0.8218587162359616</v>
       </c>
       <c r="M87" t="n" s="25">
-        <v>6.103299741910508E-5</v>
-      </c>
-      <c r="N87" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>6.33186617749709E-5</v>
+      </c>
+      <c r="N87" s="25"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3603,7 +3433,7 @@
         <v>6.600420628264955E-4</v>
       </c>
       <c r="G88" t="n" s="25">
-        <v>7.160990945935839E-5</v>
+        <v>8.593066065386423E-5</v>
       </c>
       <c r="H88" t="n" s="25">
         <v>6.600420628264955E-4</v>
@@ -3623,9 +3453,7 @@
       <c r="M88" t="n" s="25">
         <v>8.820787786023129E-20</v>
       </c>
-      <c r="N88" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N88" s="25"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3638,7 +3466,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G89" t="n" s="25">
-        <v>0.7771179337040072</v>
+        <v>0.8070992587881171</v>
       </c>
       <c r="H89" t="n" s="25">
         <v>0.7159208149572638</v>
@@ -3658,9 +3486,7 @@
       <c r="M89" t="n" s="25">
         <v>1.2929105498388163E-7</v>
       </c>
-      <c r="N89" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N89" s="25"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3693,9 +3519,7 @@
       <c r="M90" t="n" s="25">
         <v>9.237883328878212E-7</v>
       </c>
-      <c r="N90" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N90" s="25"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3708,7 +3532,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G91" t="n" s="25">
-        <v>0.04002420616645762</v>
+        <v>0.06720367302794561</v>
       </c>
       <c r="H91" t="n" s="25">
         <v>0.6829567786968528</v>
@@ -3728,9 +3552,7 @@
       <c r="M91" t="n" s="25">
         <v>5.854273726063701E-22</v>
       </c>
-      <c r="N91" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N91" s="25"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3743,7 +3565,7 @@
         <v>0.4587254838796097</v>
       </c>
       <c r="G92" t="n" s="25">
-        <v>0.8725196856291417</v>
+        <v>0.8872823917558711</v>
       </c>
       <c r="H92" t="n" s="25">
         <v>0.3925563457583449</v>
@@ -3752,7 +3574,7 @@
         <v>0.36980458539105676</v>
       </c>
       <c r="J92" t="n" s="25">
-        <v>0.7021837334958678</v>
+        <v>0.7098150746443018</v>
       </c>
       <c r="K92" t="n" s="25">
         <v>0.22217838084901226</v>
@@ -3761,11 +3583,9 @@
         <v>0.05218384976784726</v>
       </c>
       <c r="M92" t="n" s="25">
-        <v>5.017185282378565E-7</v>
-      </c>
-      <c r="N92" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>5.205088912242166E-7</v>
+      </c>
+      <c r="N92" s="25"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3778,7 +3598,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G93" t="n" s="25">
-        <v>0.6697264283126352</v>
+        <v>0.7043368599504578</v>
       </c>
       <c r="H93" t="n" s="25">
         <v>0.738560126415604</v>
@@ -3787,7 +3607,7 @@
         <v>0.8145333317915393</v>
       </c>
       <c r="J93" t="n" s="25">
-        <v>5.143345504000779E-5</v>
+        <v>5.238769556229169E-5</v>
       </c>
       <c r="K93" t="n" s="25">
         <v>0.45872548387960993</v>
@@ -3796,11 +3616,9 @@
         <v>1.8675799471742503E-5</v>
       </c>
       <c r="M93" t="n" s="25">
-        <v>1.033508783637373E-16</v>
-      </c>
-      <c r="N93" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>1.0526843888733862E-16</v>
+      </c>
+      <c r="N93" s="25"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3813,7 +3631,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G94" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H94" t="n" s="25">
         <v>0.6829567786968528</v>
@@ -3822,7 +3640,7 @@
         <v>0.9591963679410247</v>
       </c>
       <c r="J94" t="n" s="25">
-        <v>0.9997281004082165</v>
+        <v>0.9997426863292396</v>
       </c>
       <c r="K94" t="n" s="25">
         <v>0.7604100612629134</v>
@@ -3831,11 +3649,9 @@
         <v>0.9859191716282969</v>
       </c>
       <c r="M94" t="n" s="25">
-        <v>0.024236252950678126</v>
-      </c>
-      <c r="N94" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.02557532162005244</v>
+      </c>
+      <c r="N94" s="25"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3868,9 +3684,7 @@
       <c r="M95" t="n" s="25">
         <v>1.8812012600367468E-15</v>
       </c>
-      <c r="N95" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N95" s="25"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3883,7 +3697,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G96" t="n" s="25">
-        <v>0.9859496457848731</v>
+        <v>0.9853490463366767</v>
       </c>
       <c r="H96" t="n" s="25">
         <v>0.7316044330870541</v>
@@ -3892,7 +3706,7 @@
         <v>0.3290965277360483</v>
       </c>
       <c r="J96" t="n" s="25">
-        <v>0.15462529187996316</v>
+        <v>0.1594926946076007</v>
       </c>
       <c r="K96" t="n" s="25">
         <v>0.11300171120832088</v>
@@ -3901,11 +3715,9 @@
         <v>0.01548750585191274</v>
       </c>
       <c r="M96" t="n" s="25">
-        <v>3.076955428872459E-5</v>
-      </c>
-      <c r="N96" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>3.192189949044242E-5</v>
+      </c>
+      <c r="N96" s="25"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3918,7 +3730,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G97" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H97" t="n" s="25">
         <v>0.6401785876614176</v>
@@ -3927,7 +3739,7 @@
         <v>0.9245978509765802</v>
       </c>
       <c r="J97" t="n" s="25">
-        <v>0.9851211405752591</v>
+        <v>0.9859082646834377</v>
       </c>
       <c r="K97" t="n" s="25">
         <v>0.7110947045956963</v>
@@ -3936,11 +3748,9 @@
         <v>0.9704973931204313</v>
       </c>
       <c r="M97" t="n" s="25">
-        <v>0.0010312018212068905</v>
-      </c>
-      <c r="N97" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.0010896080681703463</v>
+      </c>
+      <c r="N97" s="25"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3953,7 +3763,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G98" t="n" s="25">
-        <v>0.9450390982885042</v>
+        <v>0.9427911986162315</v>
       </c>
       <c r="H98" t="n" s="25">
         <v>0.7534243418060362</v>
@@ -3962,7 +3772,7 @@
         <v>0.5710699208322487</v>
       </c>
       <c r="J98" t="n" s="25">
-        <v>3.528894850499252E-4</v>
+        <v>3.661010708451751E-4</v>
       </c>
       <c r="K98" t="n" s="25">
         <v>0.12094709347737094</v>
@@ -3971,11 +3781,9 @@
         <v>5.359515843094747E-5</v>
       </c>
       <c r="M98" t="n" s="25">
-        <v>6.395147555543234E-14</v>
-      </c>
-      <c r="N98" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>6.634658754960432E-14</v>
+      </c>
+      <c r="N98" s="25"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3988,7 +3796,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G99" t="n" s="25">
-        <v>0.9909399731266233</v>
+        <v>0.990349814811923</v>
       </c>
       <c r="H99" t="n" s="25">
         <v>0.6754769416418169</v>
@@ -3997,7 +3805,7 @@
         <v>0.7843544130433517</v>
       </c>
       <c r="J99" t="n" s="25">
-        <v>0.3168132424941252</v>
+        <v>0.3288691423505644</v>
       </c>
       <c r="K99" t="n" s="25">
         <v>0.4596521153420898</v>
@@ -4006,11 +3814,9 @@
         <v>0.18034703855917797</v>
       </c>
       <c r="M99" t="n" s="25">
-        <v>1.1772326276843388E-5</v>
-      </c>
-      <c r="N99" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>1.2439818154891259E-5</v>
+      </c>
+      <c r="N99" s="25"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4023,7 +3829,7 @@
         <v>0.28186832210072327</v>
       </c>
       <c r="G100" t="n" s="25">
-        <v>0.007484662547733188</v>
+        <v>0.010519212485451625</v>
       </c>
       <c r="H100" t="n" s="25">
         <v>0.25121626733907304</v>
@@ -4032,7 +3838,7 @@
         <v>0.0015989825460308573</v>
       </c>
       <c r="J100" t="n" s="25">
-        <v>1.278276211649551E-10</v>
+        <v>1.3019932040951514E-10</v>
       </c>
       <c r="K100" t="n" s="25">
         <v>0.022822907906642754</v>
@@ -4041,11 +3847,9 @@
         <v>1.1981170809001934E-9</v>
       </c>
       <c r="M100" t="n" s="25">
-        <v>4.5184249359688344E-23</v>
-      </c>
-      <c r="N100" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>4.602259281871311E-23</v>
+      </c>
+      <c r="N100" s="25"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4078,9 +3882,7 @@
       <c r="M101" t="n" s="25">
         <v>5.189076766691937E-5</v>
       </c>
-      <c r="N101" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N101" s="25"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4093,7 +3895,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G102" t="n" s="25">
-        <v>0.03759015796887993</v>
+        <v>0.06322558469666892</v>
       </c>
       <c r="H102" t="n" s="25">
         <v>0.6829567786968528</v>
@@ -4113,9 +3915,7 @@
       <c r="M102" t="n" s="25">
         <v>1.0832294279142914E-18</v>
       </c>
-      <c r="N102" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N102" s="25"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4128,7 +3928,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G103" t="n" s="25">
-        <v>0.10303561408963409</v>
+        <v>0.1419364980253333</v>
       </c>
       <c r="H103" t="n" s="25">
         <v>0.6996969133754082</v>
@@ -4148,9 +3948,7 @@
       <c r="M103" t="n" s="25">
         <v>7.442507771523767E-21</v>
       </c>
-      <c r="N103" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N103" s="25"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4163,7 +3961,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G104" t="n" s="25">
-        <v>0.03759015796887993</v>
+        <v>0.06322558469666892</v>
       </c>
       <c r="H104" t="n" s="25">
         <v>0.6829567786968528</v>
@@ -4183,9 +3981,7 @@
       <c r="M104" t="n" s="25">
         <v>5.818834816119994E-20</v>
       </c>
-      <c r="N104" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N104" s="25"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -4198,7 +3994,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G105" t="n" s="25">
-        <v>0.8169449298458371</v>
+        <v>0.8398177430757555</v>
       </c>
       <c r="H105" t="n" s="25">
         <v>0.738560126415604</v>
@@ -4207,7 +4003,7 @@
         <v>0.32632894138475166</v>
       </c>
       <c r="J105" t="n" s="25">
-        <v>1.248575276556929E-5</v>
+        <v>1.2717409066001103E-5</v>
       </c>
       <c r="K105" t="n" s="25">
         <v>0.1323575141847039</v>
@@ -4216,11 +4012,9 @@
         <v>2.0599236777464946E-6</v>
       </c>
       <c r="M105" t="n" s="25">
-        <v>6.272003577639306E-17</v>
-      </c>
-      <c r="N105" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>6.388373623591302E-17</v>
+      </c>
+      <c r="N105" s="25"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -4233,7 +4027,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G106" t="n" s="25">
-        <v>0.02791617358898927</v>
+        <v>0.047278312037839956</v>
       </c>
       <c r="H106" t="n" s="25">
         <v>0.6829567786968528</v>
@@ -4253,9 +4047,7 @@
       <c r="M106" t="n" s="25">
         <v>9.37412715123976E-21</v>
       </c>
-      <c r="N106" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N106" s="25"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -4288,9 +4080,7 @@
       <c r="M107" t="n" s="25">
         <v>4.714317942653043E-16</v>
       </c>
-      <c r="N107" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N107" s="25"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4303,7 +4093,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G108" t="n" s="25">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="H108" t="n" s="25">
         <v>0.7316044330870541</v>
@@ -4312,7 +4102,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="J108" t="n" s="25">
-        <v>0.999999602152718</v>
+        <v>0.9999996235005264</v>
       </c>
       <c r="K108" t="n" s="25">
         <v>0.8477949709403928</v>
@@ -4321,11 +4111,9 @@
         <v>0.9977642301510017</v>
       </c>
       <c r="M108" t="n" s="25">
-        <v>0.9994126605578281</v>
-      </c>
-      <c r="N108" t="n" s="25">
-        <v>0.5</v>
-      </c>
+        <v>0.9994441586875248</v>
+      </c>
+      <c r="N108" s="25"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4338,7 +4126,7 @@
         <v>0.5247487771919432</v>
       </c>
       <c r="G109" t="n" s="25">
-        <v>0.0014507362073913357</v>
+        <v>0.002504227361805961</v>
       </c>
       <c r="H109" t="n" s="25">
         <v>0.41577270485323314</v>
@@ -4358,9 +4146,7 @@
       <c r="M109" t="n" s="25">
         <v>2.976608186075446E-25</v>
       </c>
-      <c r="N109" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N109" s="25"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4373,7 +4159,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G110" t="n" s="25">
-        <v>0.23314410793053483</v>
+        <v>0.3044917174877648</v>
       </c>
       <c r="H110" t="n" s="25">
         <v>0.6996969133754082</v>
@@ -4393,9 +4179,7 @@
       <c r="M110" t="n" s="25">
         <v>2.5498649423621046E-15</v>
       </c>
-      <c r="N110" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N110" s="25"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4408,7 +4192,7 @@
         <v>0.7534243418060362</v>
       </c>
       <c r="G111" t="n" s="25">
-        <v>0.02791617358898927</v>
+        <v>0.047278312037839956</v>
       </c>
       <c r="H111" t="n" s="25">
         <v>0.6829567786968528</v>
@@ -4428,9 +4212,7 @@
       <c r="M111" t="n" s="25">
         <v>5.035544274623008E-22</v>
       </c>
-      <c r="N111" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N111" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
